--- a/Tel_movil_N.xlsx
+++ b/Tel_movil_N.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\4-Comunicaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9925B210-F4AC-4C3B-BDB9-B260C54D8AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8BAB23-A402-4536-88B4-9CAC6185178B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Total</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>ND No disponible.</t>
+  </si>
+  <si>
+    <t>Nota: Los datos se refieren al último día hábil del año o trimestre.</t>
   </si>
 </sst>
 </file>
@@ -403,6 +406,9 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -412,9 +418,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -806,7 +809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:L83"/>
+  <dimension ref="B2:L84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -841,17 +844,17 @@
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="42"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="5" spans="2:12" ht="36" x14ac:dyDescent="0.35">
       <c r="B5" s="39" t="s">
@@ -895,7 +898,7 @@
       <c r="C6" s="28">
         <v>3</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="40">
         <v>145850429</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -926,7 +929,7 @@
       <c r="C7" s="30">
         <v>2</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="41">
         <v>145311717</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -957,7 +960,7 @@
       <c r="C8" s="32">
         <v>1</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="42">
         <v>145202388</v>
       </c>
       <c r="E8" s="18" t="s">
@@ -3300,12 +3303,17 @@
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
-        <v>16</v>
-      </c>
-      <c r="L82" s="3"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
+        <v>16</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B84" t="s">
         <v>1</v>
       </c>
     </row>

--- a/Tel_movil_N.xlsx
+++ b/Tel_movil_N.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\4-Comunicaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8BAB23-A402-4536-88B4-9CAC6185178B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583355C2-DEB4-442F-8FCA-759FD1B109C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_41" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="30">
   <si>
     <t>Total</t>
   </si>
@@ -93,6 +93,42 @@
   </si>
   <si>
     <t>Nota: Los datos se refieren al último día hábil del año o trimestre.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
   </si>
 </sst>
 </file>
@@ -895,8 +931,8 @@
       <c r="B6" s="27">
         <v>2024</v>
       </c>
-      <c r="C6" s="28">
-        <v>3</v>
+      <c r="C6" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="D6" s="40">
         <v>145850429</v>
@@ -926,8 +962,8 @@
       <c r="B7" s="29">
         <v>2024</v>
       </c>
-      <c r="C7" s="30">
-        <v>2</v>
+      <c r="C7" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="D7" s="41">
         <v>145311717</v>
@@ -957,8 +993,8 @@
       <c r="B8" s="31">
         <v>2024</v>
       </c>
-      <c r="C8" s="32">
-        <v>1</v>
+      <c r="C8" s="32" t="s">
+        <v>20</v>
       </c>
       <c r="D8" s="42">
         <v>145202388</v>
@@ -988,8 +1024,8 @@
       <c r="B9" s="29">
         <v>2023</v>
       </c>
-      <c r="C9" s="30">
-        <v>12</v>
+      <c r="C9" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="D9" s="10">
         <v>144739818</v>
@@ -1023,8 +1059,8 @@
       <c r="B10" s="27">
         <v>2023</v>
       </c>
-      <c r="C10" s="28">
-        <v>11</v>
+      <c r="C10" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="D10" s="8">
         <v>142494045</v>
@@ -1054,8 +1090,8 @@
       <c r="B11" s="29">
         <v>2023</v>
       </c>
-      <c r="C11" s="30">
-        <v>10</v>
+      <c r="C11" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D11" s="10">
         <v>140737841</v>
@@ -1085,8 +1121,8 @@
       <c r="B12" s="27">
         <v>2023</v>
       </c>
-      <c r="C12" s="28">
-        <v>9</v>
+      <c r="C12" s="28" t="s">
+        <v>24</v>
       </c>
       <c r="D12" s="8">
         <v>139633654</v>
@@ -1120,8 +1156,8 @@
       <c r="B13" s="29">
         <v>2023</v>
       </c>
-      <c r="C13" s="30">
-        <v>8</v>
+      <c r="C13" s="30" t="s">
+        <v>25</v>
       </c>
       <c r="D13" s="10">
         <v>139225544</v>
@@ -1151,8 +1187,8 @@
       <c r="B14" s="27">
         <v>2023</v>
       </c>
-      <c r="C14" s="28">
-        <v>7</v>
+      <c r="C14" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="D14" s="8">
         <v>138611896</v>
@@ -1182,8 +1218,8 @@
       <c r="B15" s="29">
         <v>2023</v>
       </c>
-      <c r="C15" s="30">
-        <v>6</v>
+      <c r="C15" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D15" s="10">
         <v>137776475</v>
@@ -1217,8 +1253,8 @@
       <c r="B16" s="27">
         <v>2023</v>
       </c>
-      <c r="C16" s="28">
-        <v>5</v>
+      <c r="C16" s="28" t="s">
+        <v>28</v>
       </c>
       <c r="D16" s="8">
         <v>137390820</v>
@@ -1248,8 +1284,8 @@
       <c r="B17" s="29">
         <v>2023</v>
       </c>
-      <c r="C17" s="30">
-        <v>4</v>
+      <c r="C17" s="30" t="s">
+        <v>29</v>
       </c>
       <c r="D17" s="10">
         <v>136849389</v>
@@ -1279,8 +1315,8 @@
       <c r="B18" s="27">
         <v>2023</v>
       </c>
-      <c r="C18" s="28">
-        <v>3</v>
+      <c r="C18" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="D18" s="8">
         <v>136375016</v>
@@ -1314,8 +1350,8 @@
       <c r="B19" s="29">
         <v>2023</v>
       </c>
-      <c r="C19" s="30">
-        <v>2</v>
+      <c r="C19" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="D19" s="10">
         <v>135912834</v>
@@ -1345,8 +1381,8 @@
       <c r="B20" s="31">
         <v>2023</v>
       </c>
-      <c r="C20" s="32">
-        <v>1</v>
+      <c r="C20" s="32" t="s">
+        <v>20</v>
       </c>
       <c r="D20" s="17">
         <v>135918922</v>
@@ -1376,8 +1412,8 @@
       <c r="B21" s="33">
         <v>2022</v>
       </c>
-      <c r="C21" s="34">
-        <v>12</v>
+      <c r="C21" s="34" t="s">
+        <v>21</v>
       </c>
       <c r="D21" s="6">
         <v>135960888</v>
@@ -1411,8 +1447,8 @@
       <c r="B22" s="27">
         <v>2022</v>
       </c>
-      <c r="C22" s="28">
-        <v>11</v>
+      <c r="C22" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="D22" s="8">
         <v>134634684</v>
@@ -1442,8 +1478,8 @@
       <c r="B23" s="29">
         <v>2022</v>
       </c>
-      <c r="C23" s="30">
-        <v>10</v>
+      <c r="C23" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D23" s="10">
         <v>133467798</v>
@@ -1473,8 +1509,8 @@
       <c r="B24" s="27">
         <v>2022</v>
       </c>
-      <c r="C24" s="28">
-        <v>9</v>
+      <c r="C24" s="28" t="s">
+        <v>24</v>
       </c>
       <c r="D24" s="8">
         <v>132556290</v>
@@ -1508,8 +1544,8 @@
       <c r="B25" s="29">
         <v>2022</v>
       </c>
-      <c r="C25" s="30">
-        <v>8</v>
+      <c r="C25" s="30" t="s">
+        <v>25</v>
       </c>
       <c r="D25" s="10">
         <v>131938827</v>
@@ -1539,8 +1575,8 @@
       <c r="B26" s="27">
         <v>2022</v>
       </c>
-      <c r="C26" s="28">
-        <v>7</v>
+      <c r="C26" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="D26" s="8">
         <v>131323844</v>
@@ -1570,8 +1606,8 @@
       <c r="B27" s="29">
         <v>2022</v>
       </c>
-      <c r="C27" s="30">
-        <v>6</v>
+      <c r="C27" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D27" s="10">
         <v>130798677</v>
@@ -1605,8 +1641,8 @@
       <c r="B28" s="27">
         <v>2022</v>
       </c>
-      <c r="C28" s="28">
-        <v>5</v>
+      <c r="C28" s="28" t="s">
+        <v>28</v>
       </c>
       <c r="D28" s="8">
         <v>130217591</v>
@@ -1636,8 +1672,8 @@
       <c r="B29" s="29">
         <v>2022</v>
       </c>
-      <c r="C29" s="30">
-        <v>4</v>
+      <c r="C29" s="30" t="s">
+        <v>29</v>
       </c>
       <c r="D29" s="10">
         <v>129454805</v>
@@ -1667,8 +1703,8 @@
       <c r="B30" s="27">
         <v>2022</v>
       </c>
-      <c r="C30" s="28">
-        <v>3</v>
+      <c r="C30" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="D30" s="8">
         <v>128801670</v>
@@ -1702,8 +1738,8 @@
       <c r="B31" s="29">
         <v>2022</v>
       </c>
-      <c r="C31" s="30">
-        <v>2</v>
+      <c r="C31" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="D31" s="10">
         <v>128925951</v>
@@ -1733,8 +1769,8 @@
       <c r="B32" s="31">
         <v>2022</v>
       </c>
-      <c r="C32" s="32">
-        <v>1</v>
+      <c r="C32" s="32" t="s">
+        <v>20</v>
       </c>
       <c r="D32" s="17">
         <v>128632453</v>
@@ -1764,8 +1800,8 @@
       <c r="B33" s="33">
         <v>2021</v>
       </c>
-      <c r="C33" s="34">
-        <v>12</v>
+      <c r="C33" s="34" t="s">
+        <v>21</v>
       </c>
       <c r="D33" s="6">
         <v>126494879</v>
@@ -1799,8 +1835,8 @@
       <c r="B34" s="27">
         <v>2021</v>
       </c>
-      <c r="C34" s="28">
-        <v>11</v>
+      <c r="C34" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="D34" s="8">
         <v>125602527</v>
@@ -1830,8 +1866,8 @@
       <c r="B35" s="29">
         <v>2021</v>
       </c>
-      <c r="C35" s="30">
-        <v>10</v>
+      <c r="C35" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D35" s="10">
         <v>124633290</v>
@@ -1861,8 +1897,8 @@
       <c r="B36" s="27">
         <v>2021</v>
       </c>
-      <c r="C36" s="28">
-        <v>9</v>
+      <c r="C36" s="28" t="s">
+        <v>24</v>
       </c>
       <c r="D36" s="8">
         <v>124177945</v>
@@ -1896,8 +1932,8 @@
       <c r="B37" s="29">
         <v>2021</v>
       </c>
-      <c r="C37" s="30">
-        <v>8</v>
+      <c r="C37" s="30" t="s">
+        <v>25</v>
       </c>
       <c r="D37" s="10">
         <v>124146350</v>
@@ -1927,8 +1963,8 @@
       <c r="B38" s="27">
         <v>2021</v>
       </c>
-      <c r="C38" s="28">
-        <v>7</v>
+      <c r="C38" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="D38" s="8">
         <v>124163566</v>
@@ -1958,8 +1994,8 @@
       <c r="B39" s="29">
         <v>2021</v>
       </c>
-      <c r="C39" s="30">
-        <v>6</v>
+      <c r="C39" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D39" s="10">
         <v>124505735</v>
@@ -1993,8 +2029,8 @@
       <c r="B40" s="27">
         <v>2021</v>
       </c>
-      <c r="C40" s="28">
-        <v>5</v>
+      <c r="C40" s="28" t="s">
+        <v>28</v>
       </c>
       <c r="D40" s="8">
         <v>124110368</v>
@@ -2024,8 +2060,8 @@
       <c r="B41" s="29">
         <v>2021</v>
       </c>
-      <c r="C41" s="30">
-        <v>4</v>
+      <c r="C41" s="30" t="s">
+        <v>29</v>
       </c>
       <c r="D41" s="10">
         <v>123778400</v>
@@ -2055,8 +2091,8 @@
       <c r="B42" s="27">
         <v>2021</v>
       </c>
-      <c r="C42" s="28">
-        <v>3</v>
+      <c r="C42" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="D42" s="8">
         <v>123557377</v>
@@ -2090,8 +2126,8 @@
       <c r="B43" s="29">
         <v>2021</v>
       </c>
-      <c r="C43" s="30">
-        <v>2</v>
+      <c r="C43" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="D43" s="10">
         <v>123582604</v>
@@ -2121,8 +2157,8 @@
       <c r="B44" s="31">
         <v>2021</v>
       </c>
-      <c r="C44" s="32">
-        <v>1</v>
+      <c r="C44" s="32" t="s">
+        <v>20</v>
       </c>
       <c r="D44" s="17">
         <v>123389966</v>
@@ -2152,8 +2188,8 @@
       <c r="B45" s="33">
         <v>2020</v>
       </c>
-      <c r="C45" s="34">
-        <v>12</v>
+      <c r="C45" s="34" t="s">
+        <v>21</v>
       </c>
       <c r="D45" s="6">
         <v>122898392</v>
@@ -2187,8 +2223,8 @@
       <c r="B46" s="27">
         <v>2020</v>
       </c>
-      <c r="C46" s="28">
-        <v>11</v>
+      <c r="C46" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="D46" s="8">
         <v>121807828</v>
@@ -2218,8 +2254,8 @@
       <c r="B47" s="29">
         <v>2020</v>
       </c>
-      <c r="C47" s="30">
-        <v>10</v>
+      <c r="C47" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D47" s="10">
         <v>120756024</v>
@@ -2249,8 +2285,8 @@
       <c r="B48" s="27">
         <v>2020</v>
       </c>
-      <c r="C48" s="28">
-        <v>9</v>
+      <c r="C48" s="28" t="s">
+        <v>24</v>
       </c>
       <c r="D48" s="8">
         <v>120536625</v>
@@ -2284,8 +2320,8 @@
       <c r="B49" s="29">
         <v>2020</v>
       </c>
-      <c r="C49" s="30">
-        <v>8</v>
+      <c r="C49" s="30" t="s">
+        <v>25</v>
       </c>
       <c r="D49" s="10">
         <v>120398108</v>
@@ -2315,8 +2351,8 @@
       <c r="B50" s="27">
         <v>2020</v>
       </c>
-      <c r="C50" s="28">
-        <v>7</v>
+      <c r="C50" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="D50" s="8">
         <v>119351016</v>
@@ -2346,8 +2382,8 @@
       <c r="B51" s="29">
         <v>2020</v>
       </c>
-      <c r="C51" s="30">
-        <v>6</v>
+      <c r="C51" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D51" s="10">
         <v>119180902</v>
@@ -2379,8 +2415,8 @@
       <c r="B52" s="27">
         <v>2020</v>
       </c>
-      <c r="C52" s="28">
-        <v>5</v>
+      <c r="C52" s="28" t="s">
+        <v>28</v>
       </c>
       <c r="D52" s="8">
         <v>119483333</v>
@@ -2410,8 +2446,8 @@
       <c r="B53" s="29">
         <v>2020</v>
       </c>
-      <c r="C53" s="30">
-        <v>4</v>
+      <c r="C53" s="30" t="s">
+        <v>29</v>
       </c>
       <c r="D53" s="10">
         <v>120540220</v>
@@ -2441,8 +2477,8 @@
       <c r="B54" s="27">
         <v>2020</v>
       </c>
-      <c r="C54" s="28">
-        <v>3</v>
+      <c r="C54" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="D54" s="8">
         <v>122141184</v>
@@ -2474,8 +2510,8 @@
       <c r="B55" s="29">
         <v>2020</v>
       </c>
-      <c r="C55" s="30">
-        <v>2</v>
+      <c r="C55" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="D55" s="10">
         <v>122247533</v>
@@ -2505,8 +2541,8 @@
       <c r="B56" s="27">
         <v>2020</v>
       </c>
-      <c r="C56" s="28">
-        <v>1</v>
+      <c r="C56" s="28" t="s">
+        <v>20</v>
       </c>
       <c r="D56" s="8">
         <v>122142155</v>
@@ -2536,8 +2572,8 @@
       <c r="B57" s="35">
         <v>2019</v>
       </c>
-      <c r="C57" s="36">
-        <v>12</v>
+      <c r="C57" s="36" t="s">
+        <v>21</v>
       </c>
       <c r="D57" s="12">
         <v>122034815</v>
@@ -2567,8 +2603,8 @@
       <c r="B58" s="37">
         <v>2019</v>
       </c>
-      <c r="C58" s="38">
-        <v>11</v>
+      <c r="C58" s="38" t="s">
+        <v>22</v>
       </c>
       <c r="D58" s="21">
         <v>121417930</v>
@@ -2602,8 +2638,8 @@
       <c r="B59" s="29">
         <v>2019</v>
       </c>
-      <c r="C59" s="30">
-        <v>10</v>
+      <c r="C59" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D59" s="10">
         <v>121110040</v>
@@ -2633,8 +2669,8 @@
       <c r="B60" s="27">
         <v>2019</v>
       </c>
-      <c r="C60" s="28">
-        <v>9</v>
+      <c r="C60" s="28" t="s">
+        <v>24</v>
       </c>
       <c r="D60" s="8">
         <v>121348741</v>
@@ -2664,8 +2700,8 @@
       <c r="B61" s="29">
         <v>2019</v>
       </c>
-      <c r="C61" s="30">
-        <v>8</v>
+      <c r="C61" s="30" t="s">
+        <v>25</v>
       </c>
       <c r="D61" s="10">
         <v>120704330</v>
@@ -2697,8 +2733,8 @@
       <c r="B62" s="27">
         <v>2019</v>
       </c>
-      <c r="C62" s="28">
-        <v>7</v>
+      <c r="C62" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="D62" s="8">
         <v>119578360</v>
@@ -2728,8 +2764,8 @@
       <c r="B63" s="29">
         <v>2019</v>
       </c>
-      <c r="C63" s="30">
-        <v>6</v>
+      <c r="C63" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D63" s="10">
         <v>118008300</v>
@@ -2759,8 +2795,8 @@
       <c r="B64" s="27">
         <v>2019</v>
       </c>
-      <c r="C64" s="28">
-        <v>5</v>
+      <c r="C64" s="28" t="s">
+        <v>28</v>
       </c>
       <c r="D64" s="8">
         <v>117170176</v>
@@ -2792,8 +2828,8 @@
       <c r="B65" s="29">
         <v>2019</v>
       </c>
-      <c r="C65" s="30">
-        <v>4</v>
+      <c r="C65" s="30" t="s">
+        <v>29</v>
       </c>
       <c r="D65" s="10">
         <v>117766469</v>
@@ -2823,8 +2859,8 @@
       <c r="B66" s="27">
         <v>2019</v>
       </c>
-      <c r="C66" s="28">
-        <v>3</v>
+      <c r="C66" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="D66" s="8">
         <v>118594369</v>
@@ -2854,8 +2890,8 @@
       <c r="B67" s="29">
         <v>2019</v>
       </c>
-      <c r="C67" s="30">
-        <v>2</v>
+      <c r="C67" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="D67" s="10">
         <v>118857535</v>
@@ -2887,8 +2923,8 @@
       <c r="B68" s="27">
         <v>2019</v>
       </c>
-      <c r="C68" s="28">
-        <v>1</v>
+      <c r="C68" s="28" t="s">
+        <v>20</v>
       </c>
       <c r="D68" s="8">
         <v>119533959</v>
@@ -2918,8 +2954,8 @@
       <c r="B69" s="29">
         <v>2018</v>
       </c>
-      <c r="C69" s="30">
-        <v>12</v>
+      <c r="C69" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="D69" s="10">
         <v>120165322</v>
@@ -2949,8 +2985,8 @@
       <c r="B70" s="31">
         <v>2018</v>
       </c>
-      <c r="C70" s="32">
-        <v>11</v>
+      <c r="C70" s="32" t="s">
+        <v>22</v>
       </c>
       <c r="D70" s="17">
         <v>118943986</v>
@@ -2980,8 +3016,8 @@
       <c r="B71" s="30">
         <v>2018</v>
       </c>
-      <c r="C71" s="30">
-        <v>10</v>
+      <c r="C71" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D71" s="10">
         <v>117796129</v>
@@ -3015,8 +3051,8 @@
       <c r="B72" s="28">
         <v>2018</v>
       </c>
-      <c r="C72" s="28">
-        <v>9</v>
+      <c r="C72" s="28" t="s">
+        <v>24</v>
       </c>
       <c r="D72" s="8">
         <v>117359591</v>
@@ -3046,8 +3082,8 @@
       <c r="B73" s="30">
         <v>2018</v>
       </c>
-      <c r="C73" s="30">
-        <v>8</v>
+      <c r="C73" s="30" t="s">
+        <v>25</v>
       </c>
       <c r="D73" s="10">
         <v>117696970</v>
@@ -3077,8 +3113,8 @@
       <c r="B74" s="28">
         <v>2018</v>
       </c>
-      <c r="C74" s="28">
-        <v>7</v>
+      <c r="C74" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="D74" s="8">
         <v>117206582</v>
@@ -3110,8 +3146,8 @@
       <c r="B75" s="30">
         <v>2018</v>
       </c>
-      <c r="C75" s="30">
-        <v>6</v>
+      <c r="C75" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D75" s="10">
         <v>116506207</v>
@@ -3141,8 +3177,8 @@
       <c r="B76" s="28">
         <v>2018</v>
       </c>
-      <c r="C76" s="28">
-        <v>5</v>
+      <c r="C76" s="28" t="s">
+        <v>28</v>
       </c>
       <c r="D76" s="8">
         <v>116257861</v>
@@ -3172,8 +3208,8 @@
       <c r="B77" s="30">
         <v>2018</v>
       </c>
-      <c r="C77" s="30">
-        <v>4</v>
+      <c r="C77" s="30" t="s">
+        <v>29</v>
       </c>
       <c r="D77" s="10">
         <v>115575647</v>
@@ -3205,8 +3241,8 @@
       <c r="B78" s="28">
         <v>2018</v>
       </c>
-      <c r="C78" s="28">
-        <v>3</v>
+      <c r="C78" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="D78" s="8">
         <v>115133274</v>
@@ -3236,8 +3272,8 @@
       <c r="B79" s="30">
         <v>2018</v>
       </c>
-      <c r="C79" s="30">
-        <v>2</v>
+      <c r="C79" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="D79" s="10">
         <v>114858875</v>
@@ -3267,8 +3303,8 @@
       <c r="B80" s="28">
         <v>2018</v>
       </c>
-      <c r="C80" s="28">
-        <v>1</v>
+      <c r="C80" s="28" t="s">
+        <v>20</v>
       </c>
       <c r="D80" s="8">
         <v>114656791</v>

--- a/Tel_movil_N.xlsx
+++ b/Tel_movil_N.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\4-Comunicaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583355C2-DEB4-442F-8FCA-759FD1B109C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242CA475-656B-488F-8A77-B1069B726D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_41" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">C_41!$I$5:$M$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">C_41!$K$5:$M$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="31">
   <si>
     <t>Total</t>
   </si>
@@ -62,16 +62,10 @@
     <t>Minutos</t>
   </si>
   <si>
-    <t>Minutos OMV'S</t>
-  </si>
-  <si>
     <t>Servicio Móvil</t>
   </si>
   <si>
     <t>Teledensidad (P/c 100 habitantes)</t>
-  </si>
-  <si>
-    <t>Líneas en el servicio móvil de telefonía</t>
   </si>
   <si>
     <t>Mes</t>
@@ -81,12 +75,6 @@
   </si>
   <si>
     <t>ND</t>
-  </si>
-  <si>
-    <t>Actualización: agosto 2024.</t>
-  </si>
-  <si>
-    <t>Líneas OMV'S</t>
   </si>
   <si>
     <t>ND No disponible.</t>
@@ -130,6 +118,21 @@
   <si>
     <t>Abr.</t>
   </si>
+  <si>
+    <t>Servicio móvil de telefonía</t>
+  </si>
+  <si>
+    <t>Líneas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minutos </t>
+  </si>
+  <si>
+    <t>Operadores móviles virtuales (OMV´S)</t>
+  </si>
+  <si>
+    <t>Actualización: Octubre 2024.</t>
+  </si>
 </sst>
 </file>
 
@@ -139,40 +142,40 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -180,13 +183,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -216,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -354,12 +357,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -445,14 +461,38 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -497,7 +537,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -516,7 +556,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="22" formatCode="mmm\-yy"/>
@@ -559,7 +599,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -613,10 +653,10 @@
     <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Pospago controlado" dataDxfId="6"/>
     <tableColumn id="6" xr3:uid="{4AE8D212-11D1-4F4B-800F-8B1D6411D96E}" name="Pospago libre" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{21427218-D1E5-4B23-9E7C-7FEE5BE80A48}" name="No especificado" dataDxfId="4" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="7" xr3:uid="{619772BD-8CEC-435E-B34D-79D5E45C9C72}" name="Líneas OMV'S" dataDxfId="3" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="8" xr3:uid="{BEEA70B3-ADE0-44EF-8EDE-C8A09265707B}" name="Minutos" dataDxfId="2" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="9" xr3:uid="{F3099B50-3DC7-44C8-9E17-D29DE249A3A7}" name="Minutos OMV'S" dataDxfId="1" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="10" xr3:uid="{7762BB56-52A5-4640-A58F-EFCB994D8330}" name="Teledensidad (P/c 100 habitantes)" dataDxfId="0" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="8" xr3:uid="{BEEA70B3-ADE0-44EF-8EDE-C8A09265707B}" name="Minutos" dataDxfId="3" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="10" xr3:uid="{7762BB56-52A5-4640-A58F-EFCB994D8330}" name="Teledensidad (P/c 100 habitantes)" dataDxfId="2" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="7" xr3:uid="{619772BD-8CEC-435E-B34D-79D5E45C9C72}" name="Líneas" dataDxfId="1" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="9" xr3:uid="{F3099B50-3DC7-44C8-9E17-D29DE249A3A7}" name="Minutos " dataDxfId="0" dataCellStyle="20% - Énfasis5"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -625,7 +665,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -633,28 +673,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -663,14 +703,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -847,57 +887,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
   <dimension ref="B2:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="7.09765625" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.796875" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="7.25" customWidth="1"/>
+    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.875" customWidth="1"/>
+    <col min="11" max="12" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="45"/>
-    </row>
-    <row r="5" spans="2:12" ht="36" x14ac:dyDescent="0.35">
+      <c r="D4" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="50"/>
+    </row>
+    <row r="5" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>0</v>
@@ -914,118 +955,118 @@
       <c r="H5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="25" t="s">
+      <c r="I5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="25" t="s">
-        <v>7</v>
+      <c r="J5" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="44" t="s">
+        <v>27</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="27">
         <v>2024</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" s="40">
         <v>145850429</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>13</v>
+      <c r="E6" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>11</v>
       </c>
       <c r="H6" s="9">
         <v>34475</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9">
+      <c r="I6" s="9">
         <v>25280665046.830002</v>
       </c>
+      <c r="J6" s="15">
+        <v>110</v>
+      </c>
       <c r="K6" s="9"/>
-      <c r="L6" s="15">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="29">
         <v>2024</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" s="41">
         <v>145311717</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>13</v>
+      <c r="E7" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>11</v>
       </c>
       <c r="H7" s="11">
         <v>41687</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11">
+      <c r="I7" s="11">
         <v>24919670305.880001</v>
       </c>
+      <c r="J7" s="16">
+        <v>110</v>
+      </c>
       <c r="K7" s="11"/>
-      <c r="L7" s="16">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="31">
         <v>2024</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8" s="42">
         <v>145202388</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>13</v>
+      <c r="E8" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>11</v>
       </c>
       <c r="H8" s="18">
         <v>42614</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18">
+      <c r="I8" s="18">
         <v>25624656371.720001</v>
       </c>
+      <c r="J8" s="19">
+        <v>110</v>
+      </c>
       <c r="K8" s="18"/>
-      <c r="L8" s="19">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="29">
         <v>2023</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9" s="10">
         <v>144739818</v>
@@ -1043,24 +1084,24 @@
         <v>206441</v>
       </c>
       <c r="I9" s="11">
+        <v>25354344977.98</v>
+      </c>
+      <c r="J9" s="16">
+        <v>110</v>
+      </c>
+      <c r="K9" s="11">
         <v>17234713</v>
       </c>
-      <c r="J9" s="11">
-        <v>25354344977.98</v>
-      </c>
-      <c r="K9" s="11">
+      <c r="L9" s="11">
         <v>5561700714</v>
       </c>
-      <c r="L9" s="16">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="27">
         <v>2023</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D10" s="8">
         <v>142494045</v>
@@ -1077,21 +1118,21 @@
       <c r="H10" s="9">
         <v>206884</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9">
+      <c r="I10" s="9">
         <v>25501389588.810001</v>
       </c>
+      <c r="J10" s="15">
+        <v>108</v>
+      </c>
       <c r="K10" s="9"/>
-      <c r="L10" s="15">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="29">
         <v>2023</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D11" s="10">
         <v>140737841</v>
@@ -1108,21 +1149,21 @@
       <c r="H11" s="11">
         <v>207232</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11">
+      <c r="I11" s="11">
         <v>25986957369.669998</v>
       </c>
+      <c r="J11" s="16">
+        <v>107</v>
+      </c>
       <c r="K11" s="11"/>
-      <c r="L11" s="16">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="27">
         <v>2023</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D12" s="8">
         <v>139633654</v>
@@ -1140,24 +1181,24 @@
         <v>8042089</v>
       </c>
       <c r="I12" s="9">
+        <v>25432036870.34</v>
+      </c>
+      <c r="J12" s="15">
+        <v>106</v>
+      </c>
+      <c r="K12" s="9">
         <v>13521566</v>
       </c>
-      <c r="J12" s="9">
-        <v>25432036870.34</v>
-      </c>
-      <c r="K12" s="9">
+      <c r="L12" s="9">
         <v>5058788412</v>
       </c>
-      <c r="L12" s="15">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="29">
         <v>2023</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D13" s="10">
         <v>139225544</v>
@@ -1174,21 +1215,21 @@
       <c r="H13" s="11">
         <v>7510744</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11">
+      <c r="I13" s="11">
         <v>25669521641.060001</v>
       </c>
+      <c r="J13" s="16">
+        <v>106</v>
+      </c>
       <c r="K13" s="11"/>
-      <c r="L13" s="16">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="27">
         <v>2023</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D14" s="8">
         <v>138611896</v>
@@ -1205,21 +1246,21 @@
       <c r="H14" s="9">
         <v>7002857</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9">
+      <c r="I14" s="9">
         <v>25191632020.329998</v>
       </c>
+      <c r="J14" s="15">
+        <v>106</v>
+      </c>
       <c r="K14" s="9"/>
-      <c r="L14" s="15">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="29">
         <v>2023</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D15" s="10">
         <v>137776475</v>
@@ -1237,24 +1278,24 @@
         <v>64428</v>
       </c>
       <c r="I15" s="11">
+        <v>26097880948.43</v>
+      </c>
+      <c r="J15" s="16">
+        <v>105</v>
+      </c>
+      <c r="K15" s="11">
         <v>11744045</v>
       </c>
-      <c r="J15" s="11">
-        <v>26097880948.43</v>
-      </c>
-      <c r="K15" s="11">
+      <c r="L15" s="11">
         <v>4633322200</v>
       </c>
-      <c r="L15" s="16">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="27">
         <v>2023</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D16" s="8">
         <v>137390820</v>
@@ -1271,21 +1312,21 @@
       <c r="H16" s="9">
         <v>59172</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9">
+      <c r="I16" s="9">
         <v>26423893883.880001</v>
       </c>
+      <c r="J16" s="15">
+        <v>105</v>
+      </c>
       <c r="K16" s="9"/>
-      <c r="L16" s="15">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="29">
         <v>2023</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D17" s="10">
         <v>136849389</v>
@@ -1302,21 +1343,21 @@
       <c r="H17" s="11">
         <v>62802</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11">
+      <c r="I17" s="11">
         <v>25039018062.130001</v>
       </c>
+      <c r="J17" s="16">
+        <v>105</v>
+      </c>
       <c r="K17" s="11"/>
-      <c r="L17" s="16">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="27">
         <v>2023</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D18" s="8">
         <v>136375016</v>
@@ -1334,24 +1375,24 @@
         <v>76514</v>
       </c>
       <c r="I18" s="9">
+        <v>26893610571.52</v>
+      </c>
+      <c r="J18" s="15">
+        <v>104</v>
+      </c>
+      <c r="K18" s="9">
         <v>11138730</v>
       </c>
-      <c r="J18" s="9">
-        <v>26893610571.52</v>
-      </c>
-      <c r="K18" s="9">
+      <c r="L18" s="9">
         <v>4461700000</v>
       </c>
-      <c r="L18" s="15">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="29">
         <v>2023</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D19" s="10">
         <v>135912834</v>
@@ -1368,21 +1409,21 @@
       <c r="H19" s="11">
         <v>66807</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11">
+      <c r="I19" s="11">
         <v>24540668347.330002</v>
       </c>
+      <c r="J19" s="16">
+        <v>104</v>
+      </c>
       <c r="K19" s="11"/>
-      <c r="L19" s="16">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="31">
         <v>2023</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D20" s="17">
         <v>135918922</v>
@@ -1399,21 +1440,21 @@
       <c r="H20" s="18">
         <v>59094</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18">
+      <c r="I20" s="18">
         <v>26270544435.080002</v>
       </c>
+      <c r="J20" s="19">
+        <v>104</v>
+      </c>
       <c r="K20" s="18"/>
-      <c r="L20" s="19">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L20" s="18"/>
+    </row>
+    <row r="21" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="33">
         <v>2022</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D21" s="6">
         <v>135960888</v>
@@ -1431,24 +1472,24 @@
         <v>260521</v>
       </c>
       <c r="I21" s="7">
+        <v>26353350539.750004</v>
+      </c>
+      <c r="J21" s="14">
+        <v>104</v>
+      </c>
+      <c r="K21" s="7">
         <v>10534268</v>
       </c>
-      <c r="J21" s="7">
-        <v>26353350539.750004</v>
-      </c>
-      <c r="K21" s="7">
+      <c r="L21" s="7">
         <v>3970600000</v>
       </c>
-      <c r="L21" s="14">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="27">
         <v>2022</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D22" s="8">
         <v>134634684</v>
@@ -1465,21 +1506,21 @@
       <c r="H22" s="9">
         <v>263323</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9">
+      <c r="I22" s="9">
         <v>25894913099.950001</v>
       </c>
+      <c r="J22" s="15">
+        <v>103</v>
+      </c>
       <c r="K22" s="9"/>
-      <c r="L22" s="15">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="29">
         <v>2022</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D23" s="10">
         <v>133467798</v>
@@ -1496,21 +1537,21 @@
       <c r="H23" s="11">
         <v>266509</v>
       </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11">
+      <c r="I23" s="11">
         <v>26600466961.450001</v>
       </c>
+      <c r="J23" s="16">
+        <v>102</v>
+      </c>
       <c r="K23" s="11"/>
-      <c r="L23" s="16">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="27">
         <v>2022</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D24" s="8">
         <v>132556290</v>
@@ -1528,24 +1569,24 @@
         <v>231684</v>
       </c>
       <c r="I24" s="9">
+        <v>27744776775.91</v>
+      </c>
+      <c r="J24" s="15">
+        <v>102</v>
+      </c>
+      <c r="K24" s="9">
         <v>9192858</v>
       </c>
-      <c r="J24" s="9">
-        <v>27744776775.91</v>
-      </c>
-      <c r="K24" s="9">
+      <c r="L24" s="9">
         <v>3011900000</v>
       </c>
-      <c r="L24" s="15">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="29">
         <v>2022</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D25" s="10">
         <v>131938827</v>
@@ -1562,21 +1603,21 @@
       <c r="H25" s="11">
         <v>231934</v>
       </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11">
+      <c r="I25" s="11">
         <v>27406522917.589996</v>
       </c>
+      <c r="J25" s="16">
+        <v>101</v>
+      </c>
       <c r="K25" s="11"/>
-      <c r="L25" s="16">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L25" s="11"/>
+    </row>
+    <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="27">
         <v>2022</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D26" s="8">
         <v>131323844</v>
@@ -1593,21 +1634,21 @@
       <c r="H26" s="9">
         <v>234729</v>
       </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9">
+      <c r="I26" s="9">
         <v>26956581737.870007</v>
       </c>
+      <c r="J26" s="15">
+        <v>101</v>
+      </c>
       <c r="K26" s="9"/>
-      <c r="L26" s="15">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="29">
         <v>2022</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D27" s="10">
         <v>130798677</v>
@@ -1625,24 +1666,24 @@
         <v>203543</v>
       </c>
       <c r="I27" s="11">
+        <v>26838373727.539997</v>
+      </c>
+      <c r="J27" s="16">
+        <v>101</v>
+      </c>
+      <c r="K27" s="11">
         <v>7696998</v>
       </c>
-      <c r="J27" s="11">
-        <v>26838373727.539997</v>
-      </c>
-      <c r="K27" s="11">
+      <c r="L27" s="11">
         <v>3326100000</v>
       </c>
-      <c r="L27" s="16">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="27">
         <v>2022</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D28" s="8">
         <v>130217591</v>
@@ -1659,21 +1700,21 @@
       <c r="H28" s="9">
         <v>201856</v>
       </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9">
+      <c r="I28" s="9">
         <v>28699753908.240002</v>
       </c>
+      <c r="J28" s="15">
+        <v>100</v>
+      </c>
       <c r="K28" s="9"/>
-      <c r="L28" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="29">
         <v>2022</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D29" s="10">
         <v>129454805</v>
@@ -1690,21 +1731,21 @@
       <c r="H29" s="11">
         <v>176053</v>
       </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11">
+      <c r="I29" s="11">
         <v>27150251429.839996</v>
       </c>
+      <c r="J29" s="16">
+        <v>100</v>
+      </c>
       <c r="K29" s="11"/>
-      <c r="L29" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="27">
         <v>2022</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D30" s="8">
         <v>128801670</v>
@@ -1722,24 +1763,24 @@
         <v>123375</v>
       </c>
       <c r="I30" s="9">
+        <v>28661569351.740002</v>
+      </c>
+      <c r="J30" s="15">
+        <v>99</v>
+      </c>
+      <c r="K30" s="9">
         <v>6223280</v>
       </c>
-      <c r="J30" s="9">
-        <v>28661569351.740002</v>
-      </c>
-      <c r="K30" s="9">
+      <c r="L30" s="9">
         <v>3418700000</v>
       </c>
-      <c r="L30" s="15">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="29">
         <v>2022</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D31" s="10">
         <v>128925951</v>
@@ -1756,21 +1797,21 @@
       <c r="H31" s="11">
         <v>99288</v>
       </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11">
+      <c r="I31" s="11">
         <v>24750884489.649998</v>
       </c>
+      <c r="J31" s="16">
+        <v>100</v>
+      </c>
       <c r="K31" s="11"/>
-      <c r="L31" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="31">
         <v>2022</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D32" s="17">
         <v>128632453</v>
@@ -1787,21 +1828,21 @@
       <c r="H32" s="18">
         <v>69579</v>
       </c>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18">
+      <c r="I32" s="18">
         <v>26790190673.869995</v>
       </c>
+      <c r="J32" s="19">
+        <v>99</v>
+      </c>
       <c r="K32" s="18"/>
-      <c r="L32" s="19">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L32" s="18"/>
+    </row>
+    <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="33">
         <v>2021</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D33" s="6">
         <v>126494879</v>
@@ -1819,24 +1860,24 @@
         <v>412800</v>
       </c>
       <c r="I33" s="7">
+        <v>26371178792.129997</v>
+      </c>
+      <c r="J33" s="14">
+        <v>98</v>
+      </c>
+      <c r="K33" s="7">
         <v>3793682</v>
       </c>
-      <c r="J33" s="7">
-        <v>26371178792.129997</v>
-      </c>
-      <c r="K33" s="7">
+      <c r="L33" s="7">
         <v>2339600000</v>
       </c>
-      <c r="L33" s="14">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="27">
         <v>2021</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D34" s="8">
         <v>125602527</v>
@@ -1853,21 +1894,21 @@
       <c r="H34" s="9">
         <v>368788</v>
       </c>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9">
+      <c r="I34" s="9">
         <v>25515419696.779999</v>
       </c>
+      <c r="J34" s="15">
+        <v>97</v>
+      </c>
       <c r="K34" s="9"/>
-      <c r="L34" s="15">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L34" s="9"/>
+    </row>
+    <row r="35" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="29">
         <v>2021</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D35" s="10">
         <v>124633290</v>
@@ -1884,21 +1925,21 @@
       <c r="H35" s="11">
         <v>333047</v>
       </c>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11">
+      <c r="I35" s="11">
         <v>26375619195.019997</v>
       </c>
+      <c r="J35" s="16">
+        <v>96</v>
+      </c>
       <c r="K35" s="11"/>
-      <c r="L35" s="16">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="27">
         <v>2021</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D36" s="8">
         <v>124177945</v>
@@ -1916,24 +1957,24 @@
         <v>451814</v>
       </c>
       <c r="I36" s="9">
+        <v>26321771418.200001</v>
+      </c>
+      <c r="J36" s="15">
+        <v>96</v>
+      </c>
+      <c r="K36" s="9">
         <v>3495806</v>
       </c>
-      <c r="J36" s="9">
-        <v>26321771418.200001</v>
-      </c>
-      <c r="K36" s="9">
+      <c r="L36" s="9">
         <v>592000000</v>
       </c>
-      <c r="L36" s="15">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="29">
         <v>2021</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D37" s="10">
         <v>124146350</v>
@@ -1950,21 +1991,21 @@
       <c r="H37" s="11">
         <v>409633</v>
       </c>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11">
+      <c r="I37" s="11">
         <v>27626149134.400002</v>
       </c>
+      <c r="J37" s="16">
+        <v>96</v>
+      </c>
       <c r="K37" s="11"/>
-      <c r="L37" s="16">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L37" s="11"/>
+    </row>
+    <row r="38" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="27">
         <v>2021</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D38" s="8">
         <v>124163566</v>
@@ -1981,21 +2022,21 @@
       <c r="H38" s="9">
         <v>353487</v>
       </c>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9">
+      <c r="I38" s="9">
         <v>27290729267.130001</v>
       </c>
+      <c r="J38" s="15">
+        <v>96</v>
+      </c>
       <c r="K38" s="9"/>
-      <c r="L38" s="15">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="29">
         <v>2021</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D39" s="10">
         <v>124505735</v>
@@ -2013,24 +2054,24 @@
         <v>325099</v>
       </c>
       <c r="I39" s="11">
+        <v>26705729651.360001</v>
+      </c>
+      <c r="J39" s="16">
+        <v>97</v>
+      </c>
+      <c r="K39" s="11">
         <v>3137993</v>
       </c>
-      <c r="J39" s="11">
-        <v>26705729651.360001</v>
-      </c>
-      <c r="K39" s="11">
+      <c r="L39" s="11">
         <v>531299999.99999994</v>
       </c>
-      <c r="L39" s="16">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="27">
         <v>2021</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D40" s="8">
         <v>124110368</v>
@@ -2047,21 +2088,21 @@
       <c r="H40" s="9">
         <v>279539</v>
       </c>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9">
+      <c r="I40" s="9">
         <v>27563940877.530003</v>
       </c>
+      <c r="J40" s="15">
+        <v>96</v>
+      </c>
       <c r="K40" s="9"/>
-      <c r="L40" s="15">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L40" s="9"/>
+    </row>
+    <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="29">
         <v>2021</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D41" s="10">
         <v>123778400</v>
@@ -2078,21 +2119,21 @@
       <c r="H41" s="11">
         <v>244100</v>
       </c>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11">
+      <c r="I41" s="11">
         <v>26718221895.610001</v>
       </c>
+      <c r="J41" s="16">
+        <v>96</v>
+      </c>
       <c r="K41" s="11"/>
-      <c r="L41" s="16">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L41" s="11"/>
+    </row>
+    <row r="42" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="27">
         <v>2021</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D42" s="8">
         <v>123557377</v>
@@ -2110,24 +2151,24 @@
         <v>121636</v>
       </c>
       <c r="I42" s="9">
+        <v>28528221886.209999</v>
+      </c>
+      <c r="J42" s="15">
+        <v>96</v>
+      </c>
+      <c r="K42" s="9">
         <v>2818931</v>
       </c>
-      <c r="J42" s="9">
-        <v>28528221886.209999</v>
-      </c>
-      <c r="K42" s="9">
+      <c r="L42" s="9">
         <v>235900000</v>
       </c>
-      <c r="L42" s="15">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="29">
         <v>2021</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D43" s="10">
         <v>123582604</v>
@@ -2144,21 +2185,21 @@
       <c r="H43" s="11">
         <v>107815</v>
       </c>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11">
+      <c r="I43" s="11">
         <v>26303038080.57</v>
       </c>
+      <c r="J43" s="16">
+        <v>96</v>
+      </c>
       <c r="K43" s="11"/>
-      <c r="L43" s="16">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L43" s="11"/>
+    </row>
+    <row r="44" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="31">
         <v>2021</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D44" s="17">
         <v>123389966</v>
@@ -2175,21 +2216,21 @@
       <c r="H44" s="18">
         <v>29276</v>
       </c>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18">
+      <c r="I44" s="18">
         <v>27882396271.070004</v>
       </c>
+      <c r="J44" s="19">
+        <v>96</v>
+      </c>
       <c r="K44" s="18"/>
-      <c r="L44" s="19">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L44" s="18"/>
+    </row>
+    <row r="45" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="33">
         <v>2020</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D45" s="6">
         <v>122898392</v>
@@ -2207,24 +2248,24 @@
         <v>29473</v>
       </c>
       <c r="I45" s="7">
+        <v>27462542795.549999</v>
+      </c>
+      <c r="J45" s="14">
+        <v>97</v>
+      </c>
+      <c r="K45" s="7">
         <v>2550135</v>
       </c>
-      <c r="J45" s="7">
-        <v>27462542795.549999</v>
-      </c>
-      <c r="K45" s="7">
+      <c r="L45" s="7">
         <v>552800000</v>
       </c>
-      <c r="L45" s="14">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="27">
         <v>2020</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D46" s="8">
         <v>121807828</v>
@@ -2241,21 +2282,21 @@
       <c r="H46" s="9">
         <v>22161</v>
       </c>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9">
+      <c r="I46" s="9">
         <v>26719223314.889999</v>
       </c>
+      <c r="J46" s="15">
+        <v>96</v>
+      </c>
       <c r="K46" s="9"/>
-      <c r="L46" s="15">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L46" s="9"/>
+    </row>
+    <row r="47" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="29">
         <v>2020</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D47" s="10">
         <v>120756024</v>
@@ -2272,21 +2313,21 @@
       <c r="H47" s="11">
         <v>19691</v>
       </c>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11">
+      <c r="I47" s="11">
         <v>27287436226.729996</v>
       </c>
+      <c r="J47" s="16">
+        <v>95</v>
+      </c>
       <c r="K47" s="11"/>
-      <c r="L47" s="16">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L47" s="11"/>
+    </row>
+    <row r="48" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="27">
         <v>2020</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D48" s="8">
         <v>120536625</v>
@@ -2304,24 +2345,24 @@
         <v>18989</v>
       </c>
       <c r="I48" s="9">
+        <v>26402722655.540001</v>
+      </c>
+      <c r="J48" s="15">
+        <v>95</v>
+      </c>
+      <c r="K48" s="9">
         <v>2540481</v>
       </c>
-      <c r="J48" s="9">
-        <v>26402722655.540001</v>
-      </c>
-      <c r="K48" s="9">
+      <c r="L48" s="9">
         <v>520700000.00000006</v>
       </c>
-      <c r="L48" s="15">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="29">
         <v>2020</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D49" s="10">
         <v>120398108</v>
@@ -2338,21 +2379,21 @@
       <c r="H49" s="11">
         <v>17916</v>
       </c>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11">
+      <c r="I49" s="11">
         <v>27297347823.149998</v>
       </c>
+      <c r="J49" s="16">
+        <v>95</v>
+      </c>
       <c r="K49" s="11"/>
-      <c r="L49" s="16">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L49" s="11"/>
+    </row>
+    <row r="50" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="27">
         <v>2020</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D50" s="8">
         <v>119351016</v>
@@ -2369,21 +2410,21 @@
       <c r="H50" s="9">
         <v>16267</v>
       </c>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9">
+      <c r="I50" s="9">
         <v>27010736129.159996</v>
       </c>
+      <c r="J50" s="15">
+        <v>94</v>
+      </c>
       <c r="K50" s="9"/>
-      <c r="L50" s="15">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L50" s="9"/>
+    </row>
+    <row r="51" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="29">
         <v>2020</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D51" s="10">
         <v>119180902</v>
@@ -2401,22 +2442,22 @@
         <v>15930</v>
       </c>
       <c r="I51" s="11">
+        <v>25552913942.080002</v>
+      </c>
+      <c r="J51" s="16">
+        <v>94</v>
+      </c>
+      <c r="K51" s="11">
         <v>2460366</v>
       </c>
-      <c r="J51" s="11">
-        <v>25552913942.080002</v>
-      </c>
-      <c r="K51" s="11"/>
-      <c r="L51" s="16">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L51" s="11"/>
+    </row>
+    <row r="52" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="27">
         <v>2020</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D52" s="8">
         <v>119483333</v>
@@ -2433,21 +2474,21 @@
       <c r="H52" s="9">
         <v>15314</v>
       </c>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9">
+      <c r="I52" s="9">
         <v>25528467114.880009</v>
       </c>
+      <c r="J52" s="15">
+        <v>95</v>
+      </c>
       <c r="K52" s="9"/>
-      <c r="L52" s="15">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L52" s="9"/>
+    </row>
+    <row r="53" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="29">
         <v>2020</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D53" s="10">
         <v>120540220</v>
@@ -2464,21 +2505,21 @@
       <c r="H53" s="11">
         <v>14790</v>
       </c>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11">
+      <c r="I53" s="11">
         <v>25110333473.889996</v>
       </c>
+      <c r="J53" s="16">
+        <v>96</v>
+      </c>
       <c r="K53" s="11"/>
-      <c r="L53" s="16">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L53" s="11"/>
+    </row>
+    <row r="54" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="27">
         <v>2020</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D54" s="8">
         <v>122141184</v>
@@ -2496,22 +2537,22 @@
         <v>14723</v>
       </c>
       <c r="I54" s="9">
+        <v>27650633677.910007</v>
+      </c>
+      <c r="J54" s="15">
+        <v>97</v>
+      </c>
+      <c r="K54" s="9">
         <v>2327980</v>
       </c>
-      <c r="J54" s="9">
-        <v>27650633677.910007</v>
-      </c>
-      <c r="K54" s="9"/>
-      <c r="L54" s="15">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L54" s="9"/>
+    </row>
+    <row r="55" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="29">
         <v>2020</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D55" s="10">
         <v>122247533</v>
@@ -2528,21 +2569,21 @@
       <c r="H55" s="11">
         <v>14452</v>
       </c>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11">
+      <c r="I55" s="11">
         <v>24462243471.039993</v>
       </c>
+      <c r="J55" s="16">
+        <v>97</v>
+      </c>
       <c r="K55" s="11"/>
-      <c r="L55" s="16">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L55" s="11"/>
+    </row>
+    <row r="56" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="27">
         <v>2020</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D56" s="8">
         <v>122142155</v>
@@ -2559,21 +2600,21 @@
       <c r="H56" s="9">
         <v>13339</v>
       </c>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9">
+      <c r="I56" s="9">
         <v>25410369165.340004</v>
       </c>
+      <c r="J56" s="15">
+        <v>97</v>
+      </c>
       <c r="K56" s="9"/>
-      <c r="L56" s="15">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L56" s="9"/>
+    </row>
+    <row r="57" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="35">
         <v>2019</v>
       </c>
       <c r="C57" s="36" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D57" s="12">
         <v>122034815</v>
@@ -2590,21 +2631,21 @@
       <c r="H57" s="13">
         <v>13339</v>
       </c>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13">
+      <c r="I57" s="13">
         <v>25410369165.340004</v>
       </c>
+      <c r="J57" s="20">
+        <v>97</v>
+      </c>
       <c r="K57" s="13"/>
-      <c r="L57" s="20">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L57" s="13"/>
+    </row>
+    <row r="58" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="37">
         <v>2019</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D58" s="21">
         <v>121417930</v>
@@ -2622,24 +2663,24 @@
         <v>12270</v>
       </c>
       <c r="I58" s="22">
+        <v>26021275768.360004</v>
+      </c>
+      <c r="J58" s="23">
+        <v>97</v>
+      </c>
+      <c r="K58" s="22">
         <v>2028044</v>
       </c>
-      <c r="J58" s="22">
-        <v>26021275768.360004</v>
-      </c>
-      <c r="K58" s="22">
+      <c r="L58" s="22">
         <v>1762900000</v>
       </c>
-      <c r="L58" s="23">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="29">
         <v>2019</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D59" s="10">
         <v>121110040</v>
@@ -2656,21 +2697,21 @@
       <c r="H59" s="11">
         <v>11941</v>
       </c>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11">
+      <c r="I59" s="11">
         <v>25481656527.440002</v>
       </c>
+      <c r="J59" s="16">
+        <v>97</v>
+      </c>
       <c r="K59" s="11"/>
-      <c r="L59" s="16">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L59" s="11"/>
+    </row>
+    <row r="60" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="27">
         <v>2019</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D60" s="8">
         <v>121348741</v>
@@ -2687,21 +2728,21 @@
       <c r="H60" s="9">
         <v>11658</v>
       </c>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9">
+      <c r="I60" s="9">
         <v>26181122329.829994</v>
       </c>
+      <c r="J60" s="15">
+        <v>97</v>
+      </c>
       <c r="K60" s="9"/>
-      <c r="L60" s="15">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L60" s="9"/>
+    </row>
+    <row r="61" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="29">
         <v>2019</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D61" s="10">
         <v>120704330</v>
@@ -2719,22 +2760,22 @@
         <v>14812</v>
       </c>
       <c r="I61" s="11">
+        <v>24875583340.889999</v>
+      </c>
+      <c r="J61" s="16">
+        <v>97</v>
+      </c>
+      <c r="K61" s="11">
         <v>1830773</v>
       </c>
-      <c r="J61" s="11">
-        <v>24875583340.889999</v>
-      </c>
-      <c r="K61" s="11"/>
-      <c r="L61" s="16">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L61" s="11"/>
+    </row>
+    <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="27">
         <v>2019</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D62" s="8">
         <v>119578360</v>
@@ -2751,21 +2792,21 @@
       <c r="H62" s="9">
         <v>15096</v>
       </c>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9">
+      <c r="I62" s="9">
         <v>25936468219.289997</v>
       </c>
+      <c r="J62" s="15">
+        <v>96</v>
+      </c>
       <c r="K62" s="9"/>
-      <c r="L62" s="15">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L62" s="9"/>
+    </row>
+    <row r="63" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="29">
         <v>2019</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D63" s="10">
         <v>118008300</v>
@@ -2782,21 +2823,21 @@
       <c r="H63" s="11">
         <v>15324</v>
       </c>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11">
+      <c r="I63" s="11">
         <v>26139590006.860001</v>
       </c>
+      <c r="J63" s="16">
+        <v>96</v>
+      </c>
       <c r="K63" s="11"/>
-      <c r="L63" s="16">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L63" s="11"/>
+    </row>
+    <row r="64" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="27">
         <v>2019</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D64" s="8">
         <v>117170176</v>
@@ -2814,22 +2855,22 @@
         <v>16376</v>
       </c>
       <c r="I64" s="9">
+        <v>26001099707.859997</v>
+      </c>
+      <c r="J64" s="15">
+        <v>94</v>
+      </c>
+      <c r="K64" s="9">
         <v>1642866</v>
       </c>
-      <c r="J64" s="9">
-        <v>26001099707.859997</v>
-      </c>
-      <c r="K64" s="9"/>
-      <c r="L64" s="15">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L64" s="9"/>
+    </row>
+    <row r="65" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="29">
         <v>2019</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D65" s="10">
         <v>117766469</v>
@@ -2846,21 +2887,21 @@
       <c r="H65" s="11">
         <v>15672</v>
       </c>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11">
+      <c r="I65" s="11">
         <v>26710980128.73</v>
       </c>
+      <c r="J65" s="16">
+        <v>94</v>
+      </c>
       <c r="K65" s="11"/>
-      <c r="L65" s="16">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L65" s="11"/>
+    </row>
+    <row r="66" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="27">
         <v>2019</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D66" s="8">
         <v>118594369</v>
@@ -2877,21 +2918,21 @@
       <c r="H66" s="9">
         <v>15381</v>
       </c>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9">
+      <c r="I66" s="9">
         <v>24685136142.459999</v>
       </c>
+      <c r="J66" s="15">
+        <v>94</v>
+      </c>
       <c r="K66" s="9"/>
-      <c r="L66" s="15">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L66" s="9"/>
+    </row>
+    <row r="67" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="29">
         <v>2019</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D67" s="10">
         <v>118857535</v>
@@ -2909,22 +2950,22 @@
         <v>15121</v>
       </c>
       <c r="I67" s="11">
+        <v>25704068984.189999</v>
+      </c>
+      <c r="J67" s="16">
+        <v>95</v>
+      </c>
+      <c r="K67" s="11">
         <v>1625954</v>
       </c>
-      <c r="J67" s="11">
-        <v>25704068984.189999</v>
-      </c>
-      <c r="K67" s="11"/>
-      <c r="L67" s="16">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L67" s="11"/>
+    </row>
+    <row r="68" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="27">
         <v>2019</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D68" s="8">
         <v>119533959</v>
@@ -2941,21 +2982,21 @@
       <c r="H68" s="9">
         <v>15088</v>
       </c>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9">
+      <c r="I68" s="9">
         <v>23463937478.820004</v>
       </c>
+      <c r="J68" s="15">
+        <v>95</v>
+      </c>
       <c r="K68" s="9"/>
-      <c r="L68" s="15">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L68" s="9"/>
+    </row>
+    <row r="69" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="29">
         <v>2018</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D69" s="10">
         <v>120165322</v>
@@ -2972,21 +3013,21 @@
       <c r="H69" s="11">
         <v>15166</v>
       </c>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11">
+      <c r="I69" s="11">
         <v>25323210783.099998</v>
       </c>
+      <c r="J69" s="16">
+        <v>96</v>
+      </c>
       <c r="K69" s="11"/>
-      <c r="L69" s="16">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L69" s="11"/>
+    </row>
+    <row r="70" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="31">
         <v>2018</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D70" s="17">
         <v>118943986</v>
@@ -3003,21 +3044,21 @@
       <c r="H70" s="18">
         <v>15166</v>
       </c>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18">
+      <c r="I70" s="18">
         <v>25323210783.099998</v>
       </c>
+      <c r="J70" s="19">
+        <v>96</v>
+      </c>
       <c r="K70" s="18"/>
-      <c r="L70" s="19">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L70" s="18"/>
+    </row>
+    <row r="71" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="30">
         <v>2018</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D71" s="10">
         <v>117796129</v>
@@ -3035,24 +3076,24 @@
         <v>15120</v>
       </c>
       <c r="I71" s="11">
+        <v>24550771606</v>
+      </c>
+      <c r="J71" s="11">
+        <v>97</v>
+      </c>
+      <c r="K71" s="11">
         <v>1762464</v>
       </c>
-      <c r="J71" s="11">
-        <v>24550771606</v>
-      </c>
-      <c r="K71" s="11">
+      <c r="L71" s="11">
         <v>1450900000</v>
       </c>
-      <c r="L71" s="11">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="28">
         <v>2018</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D72" s="8">
         <v>117359591</v>
@@ -3069,21 +3110,21 @@
       <c r="H72" s="9">
         <v>15178</v>
       </c>
-      <c r="I72" s="9"/>
+      <c r="I72" s="9">
+        <v>24312228490</v>
+      </c>
       <c r="J72" s="9">
-        <v>24312228490</v>
+        <v>96</v>
       </c>
       <c r="K72" s="9"/>
-      <c r="L72" s="9">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L72" s="9"/>
+    </row>
+    <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="30">
         <v>2018</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D73" s="10">
         <v>117696970</v>
@@ -3100,21 +3141,21 @@
       <c r="H73" s="11">
         <v>15671</v>
       </c>
-      <c r="I73" s="11"/>
+      <c r="I73" s="11">
+        <v>25623374283</v>
+      </c>
       <c r="J73" s="11">
-        <v>25623374283</v>
+        <v>95</v>
       </c>
       <c r="K73" s="11"/>
-      <c r="L73" s="11">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L73" s="11"/>
+    </row>
+    <row r="74" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="28">
         <v>2018</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D74" s="8">
         <v>117206582</v>
@@ -3132,22 +3173,22 @@
         <v>25713</v>
       </c>
       <c r="I74" s="9">
+        <v>24219698193</v>
+      </c>
+      <c r="J74" s="9">
+        <v>95</v>
+      </c>
+      <c r="K74" s="9">
         <v>1610105</v>
       </c>
-      <c r="J74" s="9">
-        <v>24219698193</v>
-      </c>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L74" s="9"/>
+    </row>
+    <row r="75" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="30">
         <v>2018</v>
       </c>
       <c r="C75" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D75" s="10">
         <v>116506207</v>
@@ -3164,21 +3205,21 @@
       <c r="H75" s="11">
         <v>24339</v>
       </c>
-      <c r="I75" s="11"/>
+      <c r="I75" s="11">
+        <v>25297337775</v>
+      </c>
       <c r="J75" s="11">
-        <v>25297337775</v>
+        <v>95</v>
       </c>
       <c r="K75" s="11"/>
-      <c r="L75" s="11">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="76" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L75" s="11"/>
+    </row>
+    <row r="76" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="28">
         <v>2018</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D76" s="8">
         <v>116257861</v>
@@ -3195,21 +3236,21 @@
       <c r="H76" s="9">
         <v>23550</v>
       </c>
-      <c r="I76" s="9"/>
+      <c r="I76" s="9">
+        <v>24585079838</v>
+      </c>
       <c r="J76" s="9">
-        <v>24585079838</v>
+        <v>95</v>
       </c>
       <c r="K76" s="9"/>
-      <c r="L76" s="9">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L76" s="9"/>
+    </row>
+    <row r="77" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="30">
         <v>2018</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D77" s="10">
         <v>115575647</v>
@@ -3227,22 +3268,22 @@
         <v>17520</v>
       </c>
       <c r="I77" s="11">
+        <v>24867300426</v>
+      </c>
+      <c r="J77" s="11">
+        <v>94</v>
+      </c>
+      <c r="K77" s="11">
         <v>1772571</v>
       </c>
-      <c r="J77" s="11">
-        <v>24867300426</v>
-      </c>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L77" s="11"/>
+    </row>
+    <row r="78" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="28">
         <v>2018</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D78" s="8">
         <v>115133274</v>
@@ -3259,21 +3300,21 @@
       <c r="H78" s="9">
         <v>18719</v>
       </c>
-      <c r="I78" s="9"/>
+      <c r="I78" s="9">
+        <v>25313482619</v>
+      </c>
       <c r="J78" s="9">
-        <v>25313482619</v>
+        <v>94</v>
       </c>
       <c r="K78" s="9"/>
-      <c r="L78" s="9">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L78" s="9"/>
+    </row>
+    <row r="79" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="30">
         <v>2018</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D79" s="10">
         <v>114858875</v>
@@ -3290,21 +3331,21 @@
       <c r="H79" s="11">
         <v>17206</v>
       </c>
-      <c r="I79" s="11"/>
+      <c r="I79" s="11">
+        <v>24555428609</v>
+      </c>
       <c r="J79" s="11">
-        <v>24555428609</v>
+        <v>94</v>
       </c>
       <c r="K79" s="11"/>
-      <c r="L79" s="11">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L79" s="11"/>
+    </row>
+    <row r="80" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="28">
         <v>2018</v>
       </c>
       <c r="C80" s="28" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D80" s="8">
         <v>114656791</v>
@@ -3322,40 +3363,41 @@
         <v>22541</v>
       </c>
       <c r="I80" s="9">
+        <v>24820985514</v>
+      </c>
+      <c r="J80" s="9">
+        <v>93</v>
+      </c>
+      <c r="K80" s="9">
         <v>1657520</v>
       </c>
-      <c r="J80" s="9">
-        <v>24820985514</v>
-      </c>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L80" s="9"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D4:L4"/>
+  <mergeCells count="2">
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tel_movil_N.xlsx
+++ b/Tel_movil_N.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\4-Comunicaciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\4-Comunicaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B766B3-6AEE-4DD4-BD4F-83E623D72E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C33B0B7-6F35-451F-9B63-7B21C17B6860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_41" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="28">
   <si>
     <t>Total</t>
   </si>
@@ -122,14 +122,14 @@
     <t>Teledensidad (Líneas p/c 100 habitantes)</t>
   </si>
   <si>
-    <t>Actualización: Diciembre 2024.</t>
+    <t>Actualización: Abril 2024.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,11 +738,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:L83" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
-  <autoFilter ref="B5:L83" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:L86" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
+  <autoFilter ref="B5:L86" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
-        <filter val="2023"/>
         <filter val="2024"/>
       </filters>
     </filterColumn>
@@ -987,13 +986,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:L86"/>
+  <dimension ref="B2:L89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="2" width="7.25" style="3" customWidth="1"/>
@@ -1009,17 +1008,17 @@
     <col min="13" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:12" ht="18">
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:12" ht="15" customHeight="1">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="50" t="s">
@@ -1036,7 +1035,7 @@
       <c r="K4" s="52"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="2:12" ht="58.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:12" ht="49.5">
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1071,2524 +1070,2638 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B6" s="14">
+    <row r="6" spans="2:12">
+      <c r="B6" s="19">
         <v>2024</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="21">
+        <f>SUBTOTAL(9,Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
+        <v>148299346</v>
+      </c>
+      <c r="E6" s="22">
+        <v>125102325</v>
+      </c>
+      <c r="F6" s="22">
+        <v>6210080</v>
+      </c>
+      <c r="G6" s="22">
+        <v>16613618</v>
+      </c>
+      <c r="H6" s="22">
+        <v>373323</v>
+      </c>
+      <c r="I6" s="22">
+        <v>24286239418</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="14">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="16">
+        <f>SUBTOTAL(9,Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
+        <v>147044752</v>
+      </c>
+      <c r="E7" s="17">
+        <v>123897018</v>
+      </c>
+      <c r="F7" s="17">
+        <v>6195093</v>
+      </c>
+      <c r="G7" s="17">
+        <v>16577863</v>
+      </c>
+      <c r="H7" s="17">
+        <v>374778</v>
+      </c>
+      <c r="I7" s="17">
+        <v>25018331181</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="19">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="24">
+        <f>SUBTOTAL(9,Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
+        <v>148558676</v>
+      </c>
+      <c r="E8" s="25">
+        <v>125437903</v>
+      </c>
+      <c r="F8" s="25">
+        <v>6198651</v>
+      </c>
+      <c r="G8" s="25">
+        <v>16548906</v>
+      </c>
+      <c r="H8" s="22">
+        <v>373216</v>
+      </c>
+      <c r="I8" s="22">
+        <v>24853552179</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="14">
+        <v>2024</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="16">
-        <v>148521958</v>
-      </c>
-      <c r="E6" s="17">
-        <v>125302730</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="D9" s="16">
+        <f>SUBTOTAL(9,Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
+        <v>148521363</v>
+      </c>
+      <c r="E9" s="17">
+        <v>125424587</v>
+      </c>
+      <c r="F9" s="17">
         <v>6570769</v>
       </c>
-      <c r="G6" s="17">
-        <v>16498778</v>
-      </c>
-      <c r="H6" s="17">
-        <v>27229</v>
-      </c>
-      <c r="I6" s="17">
-        <v>24503868675.330002</v>
-      </c>
-      <c r="J6" s="17">
+      <c r="G9" s="17">
+        <v>16494601</v>
+      </c>
+      <c r="H9" s="17">
+        <v>31406</v>
+      </c>
+      <c r="I9" s="17">
+        <v>24516645740</v>
+      </c>
+      <c r="J9" s="17">
         <v>20132383</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K9" s="17">
         <v>5785889650</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L9" s="18">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B7" s="19">
+    <row r="10" spans="2:12">
+      <c r="B10" s="19">
         <v>2024</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="21">
-        <v>149239058</v>
-      </c>
-      <c r="E7" s="22">
-        <v>126106539</v>
-      </c>
-      <c r="F7" s="22">
+      <c r="D10" s="21">
+        <f>SUBTOTAL(9,Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
+        <v>149240434</v>
+      </c>
+      <c r="E10" s="22">
+        <v>126237451</v>
+      </c>
+      <c r="F10" s="22">
         <v>6516591</v>
       </c>
-      <c r="G7" s="22">
-        <v>16454421</v>
-      </c>
-      <c r="H7" s="22">
-        <v>31971</v>
-      </c>
-      <c r="I7" s="22">
-        <v>25942339231.129997</v>
-      </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="23">
+      <c r="G10" s="22">
+        <v>16450235</v>
+      </c>
+      <c r="H10" s="22">
+        <v>36157</v>
+      </c>
+      <c r="I10" s="22">
+        <v>25952138275</v>
+      </c>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B8" s="14">
+    <row r="11" spans="2:12">
+      <c r="B11" s="14">
         <v>2024</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="16">
-        <v>147239590</v>
-      </c>
-      <c r="E8" s="17">
-        <v>124166409</v>
-      </c>
-      <c r="F8" s="17">
-        <v>6491512</v>
-      </c>
-      <c r="G8" s="17">
-        <v>16411263</v>
-      </c>
-      <c r="H8" s="17">
-        <v>34892</v>
-      </c>
-      <c r="I8" s="17">
-        <v>25134860368.790001</v>
-      </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18">
+      <c r="D11" s="16">
+        <f>SUBTOTAL(9,Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
+        <v>147213023</v>
+      </c>
+      <c r="E11" s="17">
+        <v>124297354</v>
+      </c>
+      <c r="F11" s="17">
+        <v>6469514</v>
+      </c>
+      <c r="G11" s="17">
+        <v>16407486</v>
+      </c>
+      <c r="H11" s="17">
+        <v>38669</v>
+      </c>
+      <c r="I11" s="17">
+        <v>25134910490</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="18">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B9" s="19">
+    <row r="12" spans="2:12">
+      <c r="B12" s="19">
         <v>2024</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="24">
-        <v>146096772</v>
-      </c>
-      <c r="E9" s="25">
-        <v>123575824</v>
-      </c>
-      <c r="F9" s="25">
+      <c r="D12" s="24">
+        <f>SUBTOTAL(9,Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
+        <v>146098649</v>
+      </c>
+      <c r="E12" s="25">
+        <v>123577701</v>
+      </c>
+      <c r="F12" s="25">
         <v>6116197</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G12" s="25">
         <v>16353227</v>
       </c>
-      <c r="H9" s="22">
-        <v>43348</v>
-      </c>
-      <c r="I9" s="22">
-        <v>25296442230.287003</v>
-      </c>
-      <c r="J9" s="22">
+      <c r="H12" s="22">
+        <v>51524</v>
+      </c>
+      <c r="I12" s="22">
+        <v>25296442230</v>
+      </c>
+      <c r="J12" s="22">
         <v>19071028</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K12" s="22">
         <v>5691726000</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L12" s="23">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B10" s="14">
+    <row r="13" spans="2:12">
+      <c r="B13" s="14">
         <v>2024</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="26">
-        <v>145526240</v>
-      </c>
-      <c r="E10" s="27">
-        <v>123087906</v>
-      </c>
-      <c r="F10" s="27">
+      <c r="D13" s="26">
+        <f>SUBTOTAL(9,Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
+        <v>145527951</v>
+      </c>
+      <c r="E13" s="27">
+        <v>123089617</v>
+      </c>
+      <c r="F13" s="27">
         <v>6084204</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G13" s="27">
         <v>16310035</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H13" s="17">
         <v>44095</v>
       </c>
-      <c r="I10" s="17">
-        <v>24935455131.835999</v>
-      </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18">
+      <c r="I13" s="17">
+        <v>24935455132</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B11" s="28">
+    <row r="14" spans="2:12">
+      <c r="B14" s="28">
         <v>2024</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="30">
-        <v>145468476</v>
-      </c>
-      <c r="E11" s="31">
-        <v>123114169</v>
-      </c>
-      <c r="F11" s="31">
+      <c r="D14" s="30">
+        <f>SUBTOTAL(9,Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
+        <v>145470328</v>
+      </c>
+      <c r="E14" s="31">
+        <v>123116021</v>
+      </c>
+      <c r="F14" s="31">
         <v>6043286</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G14" s="31">
         <v>16265934</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H14" s="32">
         <v>45087</v>
       </c>
-      <c r="I11" s="32">
-        <v>25641108869.328999</v>
-      </c>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33">
+      <c r="I14" s="32">
+        <v>25641108870</v>
+      </c>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="33">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B12" s="14">
+    <row r="15" spans="2:12" hidden="1">
+      <c r="B15" s="14">
         <v>2023</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="16">
-        <v>144891591</v>
-      </c>
-      <c r="E12" s="17">
-        <v>122438469</v>
-      </c>
-      <c r="F12" s="17">
+      <c r="D15" s="16">
+        <f>SUBTOTAL(9,Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <v>122604159</v>
+      </c>
+      <c r="F15" s="17">
         <v>5952689</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G15" s="17">
         <v>16218180</v>
       </c>
-      <c r="H12" s="17">
-        <v>282253</v>
-      </c>
-      <c r="I12" s="17">
-        <v>25370368787.123001</v>
-      </c>
-      <c r="J12" s="17">
+      <c r="H15" s="17">
+        <v>190237</v>
+      </c>
+      <c r="I15" s="17">
+        <v>25370368787</v>
+      </c>
+      <c r="J15" s="17">
         <v>17579018</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K15" s="17">
         <v>5561700714</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L15" s="18">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B13" s="19">
+    <row r="16" spans="2:12" hidden="1">
+      <c r="B16" s="19">
         <v>2023</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C16" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="21">
-        <v>142643856</v>
-      </c>
-      <c r="E13" s="22">
-        <v>120335210</v>
-      </c>
-      <c r="F13" s="22">
+      <c r="D16" s="21">
+        <f>SUBTOTAL(9,Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="22">
+        <v>120500720</v>
+      </c>
+      <c r="F16" s="22">
         <v>5886331</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G16" s="22">
         <v>16141686</v>
       </c>
-      <c r="H13" s="22">
-        <v>280629</v>
-      </c>
-      <c r="I13" s="22">
-        <v>25514991003.408997</v>
-      </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B14" s="14">
+      <c r="H16" s="22">
+        <v>182109</v>
+      </c>
+      <c r="I16" s="22">
+        <v>25514991003</v>
+      </c>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" hidden="1">
+      <c r="B17" s="14">
         <v>2023</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="16">
-        <v>140884648</v>
-      </c>
-      <c r="E14" s="17">
-        <v>118673165</v>
-      </c>
-      <c r="F14" s="17">
+      <c r="D17" s="16">
+        <f>SUBTOTAL(9,Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="17">
+        <v>118839844</v>
+      </c>
+      <c r="F17" s="17">
         <v>5847076</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G17" s="17">
         <v>16087146</v>
       </c>
-      <c r="H14" s="17">
-        <v>277261</v>
-      </c>
-      <c r="I14" s="17">
-        <v>26001264987.040997</v>
-      </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="18">
+      <c r="H17" s="17">
+        <v>170989</v>
+      </c>
+      <c r="I17" s="17">
+        <v>26001264985</v>
+      </c>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B15" s="19">
+    <row r="18" spans="2:12" hidden="1">
+      <c r="B18" s="19">
         <v>2023</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C18" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="21">
-        <v>139674419</v>
-      </c>
-      <c r="E15" s="22">
+      <c r="D18" s="21">
+        <f>SUBTOTAL(9,Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="22">
         <v>109446461</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F18" s="22">
         <v>6086039</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G18" s="22">
         <v>16059065</v>
       </c>
-      <c r="H15" s="22">
-        <v>8082854</v>
-      </c>
-      <c r="I15" s="22">
-        <v>25432036870.335999</v>
-      </c>
-      <c r="J15" s="22">
+      <c r="H18" s="22">
+        <v>8125834</v>
+      </c>
+      <c r="I18" s="22">
+        <v>25432036870</v>
+      </c>
+      <c r="J18" s="22">
         <v>13582931</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K18" s="22">
         <v>5058788412</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L18" s="23">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B16" s="14">
+    <row r="19" spans="2:12" hidden="1">
+      <c r="B19" s="14">
         <v>2023</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="16">
-        <v>139265492</v>
-      </c>
-      <c r="E16" s="17">
+      <c r="D19" s="16">
+        <f>SUBTOTAL(9,Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="17">
         <v>109680286</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F19" s="17">
         <v>6029608</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G19" s="17">
         <v>16004906</v>
       </c>
-      <c r="H16" s="17">
-        <v>7550692</v>
-      </c>
-      <c r="I16" s="17">
-        <v>25669521641.060997</v>
-      </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="18">
+      <c r="H19" s="17">
+        <v>7589517</v>
+      </c>
+      <c r="I19" s="17">
+        <v>25669521641</v>
+      </c>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="18">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B17" s="19">
+    <row r="20" spans="2:12" hidden="1">
+      <c r="B20" s="19">
         <v>2023</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="21">
-        <v>138650394</v>
-      </c>
-      <c r="E17" s="22">
+      <c r="D20" s="21">
+        <f>SUBTOTAL(9,Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="22">
         <v>109696694</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F20" s="22">
         <v>5955335</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G20" s="22">
         <v>15957010</v>
       </c>
-      <c r="H17" s="22">
-        <v>7041355</v>
-      </c>
-      <c r="I17" s="22">
-        <v>25191632020.327</v>
-      </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23">
+      <c r="H20" s="22">
+        <v>7078059</v>
+      </c>
+      <c r="I20" s="22">
+        <v>25191632020</v>
+      </c>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23">
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B18" s="14">
+    <row r="21" spans="2:12" hidden="1">
+      <c r="B21" s="14">
         <v>2023</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C21" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="16">
-        <v>137803897</v>
-      </c>
-      <c r="E18" s="17">
+      <c r="D21" s="16">
+        <f>SUBTOTAL(9,Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="17">
         <v>115864637</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F21" s="17">
         <v>5925555</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G21" s="17">
         <v>15921855</v>
       </c>
-      <c r="H18" s="17">
-        <v>91850</v>
-      </c>
-      <c r="I18" s="17">
-        <v>26097880948.426003</v>
-      </c>
-      <c r="J18" s="17">
+      <c r="H21" s="17">
+        <v>122837</v>
+      </c>
+      <c r="I21" s="17">
+        <v>26097732247</v>
+      </c>
+      <c r="J21" s="17">
         <v>11793961</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K21" s="17">
         <v>4633322200</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L21" s="18">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B19" s="19">
+    <row r="22" spans="2:12" hidden="1">
+      <c r="B22" s="19">
         <v>2023</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C22" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="21">
-        <v>137416949</v>
-      </c>
-      <c r="E19" s="22">
+      <c r="D22" s="21">
+        <f>SUBTOTAL(9,Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="22">
         <v>115577448</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F22" s="22">
         <v>5867831</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G22" s="22">
         <v>15886369</v>
       </c>
-      <c r="H19" s="22">
-        <v>85301</v>
-      </c>
-      <c r="I19" s="22">
-        <v>26423893883.878002</v>
-      </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="23">
+      <c r="H22" s="22">
+        <v>110337</v>
+      </c>
+      <c r="I22" s="22">
+        <v>26423759744</v>
+      </c>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B20" s="14">
+    <row r="23" spans="2:12" hidden="1">
+      <c r="B23" s="14">
         <v>2023</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C23" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="16">
-        <v>136874544</v>
-      </c>
-      <c r="E20" s="17">
+      <c r="D23" s="16">
+        <f>SUBTOTAL(9,Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
         <v>115098442</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F23" s="17">
         <v>5805746</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G23" s="17">
         <v>15882399</v>
       </c>
-      <c r="H20" s="17">
-        <v>87957</v>
-      </c>
-      <c r="I20" s="17">
-        <v>25039018062.130001</v>
-      </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="18">
+      <c r="H23" s="17">
+        <v>109154</v>
+      </c>
+      <c r="I23" s="17">
+        <v>25038902643</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="18">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B21" s="19">
+    <row r="24" spans="2:12" hidden="1">
+      <c r="B24" s="19">
         <v>2023</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C24" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="21">
-        <v>136398818</v>
-      </c>
-      <c r="E21" s="22">
-        <v>114655603</v>
-      </c>
-      <c r="F21" s="22">
+      <c r="D24" s="21">
+        <f>SUBTOTAL(9,Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="22">
+        <v>114714312</v>
+      </c>
+      <c r="F24" s="22">
         <v>5774179</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G24" s="22">
         <v>15868720</v>
       </c>
-      <c r="H21" s="22">
-        <v>100316</v>
-      </c>
-      <c r="I21" s="22">
-        <v>26893610571.740002</v>
-      </c>
-      <c r="J21" s="22">
+      <c r="H24" s="22">
+        <v>116335</v>
+      </c>
+      <c r="I24" s="22">
+        <v>26893811581</v>
+      </c>
+      <c r="J24" s="22">
         <v>11181175</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K24" s="22">
         <v>4461700000</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L24" s="23">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B22" s="14">
+    <row r="25" spans="2:12" hidden="1">
+      <c r="B25" s="14">
         <v>2023</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C25" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="16">
-        <v>135935006</v>
-      </c>
-      <c r="E22" s="17">
-        <v>114289392</v>
-      </c>
-      <c r="F22" s="17">
+      <c r="D25" s="16">
+        <f>SUBTOTAL(9,Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="17">
+        <v>114346182</v>
+      </c>
+      <c r="F25" s="17">
         <v>5712952</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G25" s="17">
         <v>15843683</v>
       </c>
-      <c r="H22" s="17">
-        <v>88979</v>
-      </c>
-      <c r="I22" s="17">
-        <v>24540668347.700001</v>
-      </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="18">
+      <c r="H25" s="17">
+        <v>103885</v>
+      </c>
+      <c r="I25" s="17">
+        <v>24544121367</v>
+      </c>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="18">
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B23" s="28">
+    <row r="26" spans="2:12" hidden="1">
+      <c r="B26" s="28">
         <v>2023</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C26" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="34">
-        <v>135939849</v>
-      </c>
-      <c r="E23" s="32">
-        <v>114359028</v>
-      </c>
-      <c r="F23" s="32">
+      <c r="D26" s="34">
+        <f>SUBTOTAL(9,Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="32">
+        <v>114413411</v>
+      </c>
+      <c r="F26" s="32">
         <v>5674107</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G26" s="32">
         <v>15826693</v>
       </c>
-      <c r="H23" s="32">
-        <v>80021</v>
-      </c>
-      <c r="I23" s="32">
-        <v>26270544435.029995</v>
-      </c>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="33">
+      <c r="H26" s="32">
+        <v>92948</v>
+      </c>
+      <c r="I26" s="32">
+        <v>26273659459</v>
+      </c>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="33">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="35">
+    <row r="27" spans="2:12" hidden="1">
+      <c r="B27" s="35">
         <v>2022</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C27" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D27" s="37">
         <v>135970460</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E27" s="38">
         <v>114356657</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F27" s="38">
         <v>5607390</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G27" s="38">
         <v>15736320</v>
       </c>
-      <c r="H24" s="38">
-        <v>270093</v>
-      </c>
-      <c r="I24" s="38">
-        <v>26353350539.750004</v>
-      </c>
-      <c r="J24" s="38">
+      <c r="H27" s="38">
+        <v>270223</v>
+      </c>
+      <c r="I27" s="38">
+        <v>26357788538</v>
+      </c>
+      <c r="J27" s="38">
         <v>10570011</v>
       </c>
-      <c r="K24" s="38">
+      <c r="K27" s="38">
         <v>3970600000</v>
       </c>
-      <c r="L24" s="39">
+      <c r="L27" s="39">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="19">
+    <row r="28" spans="2:12" hidden="1">
+      <c r="B28" s="19">
         <v>2022</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C28" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D28" s="21">
         <v>134643076</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E28" s="22">
         <v>113143874</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F28" s="22">
         <v>5535708</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G28" s="22">
         <v>15691779</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H28" s="22">
         <v>271715</v>
       </c>
-      <c r="I25" s="22">
-        <v>25894913099.950001</v>
-      </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="23">
+      <c r="I28" s="22">
+        <v>25897748956</v>
+      </c>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="14">
+    <row r="29" spans="2:12" hidden="1">
+      <c r="B29" s="14">
         <v>2022</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D29" s="16">
         <v>133475136</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E29" s="17">
         <v>112075984</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F29" s="17">
         <v>5461552</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G29" s="17">
         <v>15663753</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H29" s="17">
         <v>273847</v>
       </c>
-      <c r="I26" s="17">
-        <v>26600466961.450001</v>
-      </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="18">
+      <c r="I29" s="17">
+        <v>26603335100</v>
+      </c>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="18">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="19">
+    <row r="30" spans="2:12" hidden="1">
+      <c r="B30" s="19">
         <v>2022</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C30" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D30" s="21">
         <v>132562785</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E30" s="22">
         <v>111516397</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F30" s="22">
         <v>5187593</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G30" s="22">
         <v>15620616</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H30" s="22">
         <v>238179</v>
       </c>
-      <c r="I27" s="22">
-        <v>27744776775.91</v>
-      </c>
-      <c r="J27" s="22">
+      <c r="I30" s="22">
+        <v>27744776776</v>
+      </c>
+      <c r="J30" s="22">
         <v>9219520</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K30" s="22">
         <v>3011900000</v>
       </c>
-      <c r="L27" s="23">
+      <c r="L30" s="23">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="14">
+    <row r="31" spans="2:12" hidden="1">
+      <c r="B31" s="14">
         <v>2022</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C31" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D31" s="16">
         <v>131944535</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E31" s="17">
         <v>110912838</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F31" s="17">
         <v>5160368</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G31" s="17">
         <v>15633687</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H31" s="17">
         <v>237642</v>
       </c>
-      <c r="I28" s="17">
-        <v>27406522917.589996</v>
-      </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="18">
+      <c r="I31" s="17">
+        <v>27406522919</v>
+      </c>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="18">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="19">
+    <row r="32" spans="2:12" hidden="1">
+      <c r="B32" s="19">
         <v>2022</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C32" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D32" s="21">
         <v>131328841</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E32" s="22">
         <v>110334434</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F32" s="22">
         <v>5109772</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G32" s="22">
         <v>15644909</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H32" s="22">
         <v>239726</v>
       </c>
-      <c r="I29" s="22">
-        <v>26956581737.870007</v>
-      </c>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="23">
+      <c r="I32" s="22">
+        <v>26956581738</v>
+      </c>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="23">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="14">
+    <row r="33" spans="2:12" hidden="1">
+      <c r="B33" s="14">
         <v>2022</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C33" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D33" s="16">
         <v>130802953</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E33" s="17">
         <v>109773858</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F33" s="17">
         <v>5090618</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G33" s="17">
         <v>15730658</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H33" s="17">
         <v>207819</v>
       </c>
-      <c r="I30" s="17">
-        <v>26838373727.539997</v>
-      </c>
-      <c r="J30" s="17">
+      <c r="I33" s="17">
+        <v>26838373728</v>
+      </c>
+      <c r="J33" s="17">
         <v>7715428</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K33" s="17">
         <v>3326100000</v>
       </c>
-      <c r="L30" s="18">
+      <c r="L33" s="18">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="19">
+    <row r="34" spans="2:12" hidden="1">
+      <c r="B34" s="19">
         <v>2022</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C34" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D34" s="21">
         <v>130221318</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E34" s="22">
         <v>109228467</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F34" s="22">
         <v>5066259</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G34" s="22">
         <v>15721009</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H34" s="22">
         <v>205583</v>
       </c>
-      <c r="I31" s="22">
-        <v>28699753908.240002</v>
-      </c>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="23">
+      <c r="I34" s="22">
+        <v>28699753909</v>
+      </c>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="23">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="14">
+    <row r="35" spans="2:12" hidden="1">
+      <c r="B35" s="14">
         <v>2022</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C35" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D35" s="16">
         <v>129458217</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E35" s="17">
         <v>108529668</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F35" s="17">
         <v>5039229</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G35" s="17">
         <v>15709855</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H35" s="17">
         <v>179465</v>
       </c>
-      <c r="I32" s="17">
-        <v>27150251429.839996</v>
-      </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="18">
+      <c r="I35" s="17">
+        <v>27150251431</v>
+      </c>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="18">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="19">
+    <row r="36" spans="2:12" hidden="1">
+      <c r="B36" s="19">
         <v>2022</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C36" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D36" s="21">
         <v>128804713</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E36" s="22">
         <v>107952775</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F36" s="22">
         <v>5015495</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G36" s="22">
         <v>15710025</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H36" s="22">
         <v>126418</v>
       </c>
-      <c r="I33" s="22">
-        <v>28661569351.740002</v>
-      </c>
-      <c r="J33" s="22">
+      <c r="I36" s="22">
+        <v>28665111372</v>
+      </c>
+      <c r="J36" s="22">
         <v>6235625</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K36" s="22">
         <v>3418700000</v>
       </c>
-      <c r="L33" s="23">
+      <c r="L36" s="23">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="14">
+    <row r="37" spans="2:12" hidden="1">
+      <c r="B37" s="14">
         <v>2022</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C37" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D37" s="16">
         <v>128928568</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E37" s="17">
         <v>108122455</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F37" s="17">
         <v>4987126</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G37" s="17">
         <v>15717082</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H37" s="17">
         <v>101905</v>
       </c>
-      <c r="I34" s="17">
-        <v>24750884489.649998</v>
-      </c>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="18">
+      <c r="I37" s="17">
+        <v>24753946330</v>
+      </c>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="18">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="28">
+    <row r="38" spans="2:12" hidden="1">
+      <c r="B38" s="28">
         <v>2022</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C38" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="34">
+      <c r="D38" s="34">
         <v>128634683</v>
       </c>
-      <c r="E35" s="32">
+      <c r="E38" s="32">
         <v>107919878</v>
       </c>
-      <c r="F35" s="32">
+      <c r="F38" s="32">
         <v>4917807</v>
       </c>
-      <c r="G35" s="32">
+      <c r="G38" s="32">
         <v>15725189</v>
       </c>
-      <c r="H35" s="32">
+      <c r="H38" s="32">
         <v>71809</v>
       </c>
-      <c r="I35" s="32">
-        <v>26790190673.869995</v>
-      </c>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="33">
+      <c r="I38" s="32">
+        <v>26796369303</v>
+      </c>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="33">
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="35">
+    <row r="39" spans="2:12" hidden="1">
+      <c r="B39" s="35">
         <v>2021</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C39" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="37">
+      <c r="D39" s="37">
         <v>126504960</v>
       </c>
-      <c r="E36" s="38">
+      <c r="E39" s="38">
         <v>105374557</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F39" s="38">
         <v>4970730</v>
       </c>
-      <c r="G36" s="38">
+      <c r="G39" s="38">
         <v>15746873</v>
       </c>
-      <c r="H36" s="38">
+      <c r="H39" s="38">
         <v>412800</v>
       </c>
-      <c r="I36" s="38">
-        <v>26371178792.129997</v>
-      </c>
-      <c r="J36" s="38">
+      <c r="I39" s="38">
+        <v>26371178793</v>
+      </c>
+      <c r="J39" s="38">
         <v>3803763</v>
       </c>
-      <c r="K36" s="38">
+      <c r="K39" s="38">
         <v>2339600000</v>
       </c>
-      <c r="L36" s="39">
+      <c r="L39" s="39">
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="19">
+    <row r="40" spans="2:12" hidden="1">
+      <c r="B40" s="19">
         <v>2021</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C40" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D40" s="21">
         <v>125612639</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E40" s="22">
         <v>104567892</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F40" s="22">
         <v>4946554</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G40" s="22">
         <v>15729405</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H40" s="22">
         <v>368788</v>
       </c>
-      <c r="I37" s="22">
-        <v>25515419696.779999</v>
-      </c>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="23">
+      <c r="I40" s="22">
+        <v>25515419696</v>
+      </c>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="23">
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="14">
+    <row r="41" spans="2:12" hidden="1">
+      <c r="B41" s="14">
         <v>2021</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C41" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D41" s="16">
         <v>124643343</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E41" s="17">
         <v>103686098</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F41" s="17">
         <v>4890287</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G41" s="17">
         <v>15733911</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H41" s="17">
         <v>333047</v>
       </c>
-      <c r="I38" s="17">
-        <v>26375619195.019997</v>
-      </c>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="18">
+      <c r="I41" s="17">
+        <v>26375619195</v>
+      </c>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="18">
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="19">
+    <row r="42" spans="2:12" hidden="1">
+      <c r="B42" s="19">
         <v>2021</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C42" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D42" s="21">
         <v>124177945</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E42" s="22">
         <v>103112701</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F42" s="22">
         <v>4871153</v>
       </c>
-      <c r="G39" s="22">
+      <c r="G42" s="22">
         <v>15742277</v>
       </c>
-      <c r="H39" s="22">
+      <c r="H42" s="22">
         <v>451814</v>
       </c>
-      <c r="I39" s="22">
-        <v>26321771418.200001</v>
-      </c>
-      <c r="J39" s="22">
+      <c r="I42" s="22">
+        <v>26321771418</v>
+      </c>
+      <c r="J42" s="22">
         <v>3495806</v>
       </c>
-      <c r="K39" s="22">
+      <c r="K42" s="22">
         <v>592000000</v>
       </c>
-      <c r="L39" s="23">
+      <c r="L42" s="23">
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="14">
+    <row r="43" spans="2:12" hidden="1">
+      <c r="B43" s="14">
         <v>2021</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C43" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D43" s="16">
         <v>124146350</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E43" s="17">
         <v>103151368</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F43" s="17">
         <v>4862355</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G43" s="17">
         <v>15722994</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H43" s="17">
         <v>409633</v>
       </c>
-      <c r="I40" s="17">
-        <v>27626149134.400002</v>
-      </c>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="18">
+      <c r="I43" s="17">
+        <v>27626149134</v>
+      </c>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="18">
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="19">
+    <row r="44" spans="2:12" hidden="1">
+      <c r="B44" s="19">
         <v>2021</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C44" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D44" s="21">
         <v>124163566</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E44" s="22">
         <v>103295131</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F44" s="22">
         <v>4801106</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G44" s="22">
         <v>15713842</v>
       </c>
-      <c r="H41" s="22">
+      <c r="H44" s="22">
         <v>353487</v>
       </c>
-      <c r="I41" s="22">
-        <v>27290729267.130001</v>
-      </c>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="23">
+      <c r="I44" s="22">
+        <v>27290729267</v>
+      </c>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="23">
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="14">
+    <row r="45" spans="2:12" hidden="1">
+      <c r="B45" s="14">
         <v>2021</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C45" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D45" s="16">
         <v>124505735</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E45" s="17">
         <v>103616845</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F45" s="17">
         <v>4780693</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G45" s="17">
         <v>15783098</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H45" s="17">
         <v>325099</v>
       </c>
-      <c r="I42" s="17">
-        <v>26705729651.360001</v>
-      </c>
-      <c r="J42" s="17">
+      <c r="I45" s="17">
+        <v>26705729652</v>
+      </c>
+      <c r="J45" s="17">
         <v>3137993</v>
       </c>
-      <c r="K42" s="17">
+      <c r="K45" s="17">
         <v>531299999.99999994</v>
       </c>
-      <c r="L42" s="18">
+      <c r="L45" s="18">
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="19">
+    <row r="46" spans="2:12" hidden="1">
+      <c r="B46" s="19">
         <v>2021</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C46" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D46" s="21">
         <v>124110368</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E46" s="22">
         <v>103378189</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F46" s="22">
         <v>4680806</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G46" s="22">
         <v>15771834</v>
       </c>
-      <c r="H43" s="22">
+      <c r="H46" s="22">
         <v>279539</v>
       </c>
-      <c r="I43" s="22">
-        <v>27563940877.530003</v>
-      </c>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="23">
+      <c r="I46" s="22">
+        <v>27563940878</v>
+      </c>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="23">
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="14">
+    <row r="47" spans="2:12" hidden="1">
+      <c r="B47" s="14">
         <v>2021</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C47" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D47" s="16">
         <v>123778400</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E47" s="17">
         <v>103177823</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F47" s="17">
         <v>4650897</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G47" s="17">
         <v>15705580</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H47" s="17">
         <v>244100</v>
       </c>
-      <c r="I44" s="17">
-        <v>26718221895.610001</v>
-      </c>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="18">
+      <c r="I47" s="17">
+        <v>26718221896</v>
+      </c>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="18">
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="19">
+    <row r="48" spans="2:12" hidden="1">
+      <c r="B48" s="19">
         <v>2021</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C48" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D48" s="21">
         <v>123557377</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E48" s="22">
         <v>103242741</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F48" s="22">
         <v>4609587</v>
       </c>
-      <c r="G45" s="22">
+      <c r="G48" s="22">
         <v>15583413</v>
       </c>
-      <c r="H45" s="22">
+      <c r="H48" s="22">
         <v>121636</v>
       </c>
-      <c r="I45" s="22">
-        <v>28528221886.209999</v>
-      </c>
-      <c r="J45" s="22">
+      <c r="I48" s="22">
+        <v>28528221885</v>
+      </c>
+      <c r="J48" s="22">
         <v>2818931</v>
       </c>
-      <c r="K45" s="22">
+      <c r="K48" s="22">
         <v>235900000</v>
       </c>
-      <c r="L45" s="23">
+      <c r="L48" s="23">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="14">
+    <row r="49" spans="2:12" hidden="1">
+      <c r="B49" s="14">
         <v>2021</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C49" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D49" s="16">
         <v>123582604</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E49" s="17">
         <v>103301594</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F49" s="17">
         <v>4572366</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G49" s="17">
         <v>15600829</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H49" s="17">
         <v>107815</v>
       </c>
-      <c r="I46" s="17">
-        <v>26303038080.57</v>
-      </c>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="18">
+      <c r="I49" s="17">
+        <v>26303038080</v>
+      </c>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="18">
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="28">
+    <row r="50" spans="2:12" hidden="1">
+      <c r="B50" s="28">
         <v>2021</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C50" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="34">
+      <c r="D50" s="34">
         <v>123389966</v>
       </c>
-      <c r="E47" s="32">
+      <c r="E50" s="32">
         <v>103167546</v>
       </c>
-      <c r="F47" s="32">
+      <c r="F50" s="32">
         <v>4543555</v>
       </c>
-      <c r="G47" s="32">
+      <c r="G50" s="32">
         <v>15583973</v>
       </c>
-      <c r="H47" s="32">
+      <c r="H50" s="32">
         <v>94892</v>
       </c>
-      <c r="I47" s="32">
-        <v>27882396271.070004</v>
-      </c>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="33">
+      <c r="I50" s="32">
+        <v>27882396271</v>
+      </c>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="33">
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="35">
+    <row r="51" spans="2:12" hidden="1">
+      <c r="B51" s="35">
         <v>2020</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C51" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="37">
+      <c r="D51" s="37">
         <v>122898392</v>
       </c>
-      <c r="E48" s="38">
+      <c r="E51" s="38">
         <v>102807271</v>
       </c>
-      <c r="F48" s="38">
+      <c r="F51" s="38">
         <v>4477088</v>
       </c>
-      <c r="G48" s="38">
+      <c r="G51" s="38">
         <v>15584560</v>
       </c>
-      <c r="H48" s="38">
+      <c r="H51" s="38">
         <v>29473</v>
       </c>
-      <c r="I48" s="38">
-        <v>27462542795.549999</v>
-      </c>
-      <c r="J48" s="38">
+      <c r="I51" s="38">
+        <v>27462542795</v>
+      </c>
+      <c r="J51" s="38">
         <v>2550135</v>
       </c>
-      <c r="K48" s="38">
+      <c r="K51" s="38">
         <v>552800000</v>
       </c>
-      <c r="L48" s="39">
+      <c r="L51" s="39">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="19">
+    <row r="52" spans="2:12" hidden="1">
+      <c r="B52" s="19">
         <v>2020</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C52" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D52" s="21">
         <v>121807828</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E52" s="22">
         <v>101788385</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F52" s="22">
         <v>4418776</v>
       </c>
-      <c r="G49" s="22">
+      <c r="G52" s="22">
         <v>15578506</v>
       </c>
-      <c r="H49" s="22">
+      <c r="H52" s="22">
         <v>22161</v>
       </c>
-      <c r="I49" s="22">
-        <v>26719223314.889999</v>
-      </c>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="23">
+      <c r="I52" s="22">
+        <v>26719223314</v>
+      </c>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="23">
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="14">
+    <row r="53" spans="2:12" hidden="1">
+      <c r="B53" s="14">
         <v>2020</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C53" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D53" s="16">
         <v>120756024</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E53" s="17">
         <v>100757064</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F53" s="17">
         <v>4380233</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G53" s="17">
         <v>15599036</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H53" s="17">
         <v>19691</v>
       </c>
-      <c r="I50" s="17">
-        <v>27287436226.729996</v>
-      </c>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="18">
+      <c r="I53" s="17">
+        <v>27287436227</v>
+      </c>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="18">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="19">
+    <row r="54" spans="2:12" hidden="1">
+      <c r="B54" s="19">
         <v>2020</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C54" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D54" s="21">
         <v>120536625</v>
       </c>
-      <c r="E51" s="22">
+      <c r="E54" s="22">
         <v>100584021</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F54" s="22">
         <v>4326979</v>
       </c>
-      <c r="G51" s="22">
+      <c r="G54" s="22">
         <v>15606636</v>
       </c>
-      <c r="H51" s="22">
+      <c r="H54" s="22">
         <v>18989</v>
       </c>
-      <c r="I51" s="22">
-        <v>26402722655.540001</v>
-      </c>
-      <c r="J51" s="22">
+      <c r="I54" s="22">
+        <v>26402722657</v>
+      </c>
+      <c r="J54" s="22">
         <v>2540481</v>
       </c>
-      <c r="K51" s="22">
+      <c r="K54" s="22">
         <v>520700000.00000006</v>
       </c>
-      <c r="L51" s="23">
+      <c r="L54" s="23">
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="14">
+    <row r="55" spans="2:12" hidden="1">
+      <c r="B55" s="14">
         <v>2020</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C55" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D55" s="16">
         <v>120398108</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E55" s="17">
         <v>100464022</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F55" s="17">
         <v>4256009</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G55" s="17">
         <v>15660161</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H55" s="17">
         <v>17916</v>
       </c>
-      <c r="I52" s="17">
-        <v>27297347823.149998</v>
-      </c>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="18">
+      <c r="I55" s="17">
+        <v>27297347824</v>
+      </c>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="18">
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="19">
+    <row r="56" spans="2:12" hidden="1">
+      <c r="B56" s="19">
         <v>2020</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C56" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D56" s="21">
         <v>119351016</v>
       </c>
-      <c r="E53" s="22">
+      <c r="E56" s="22">
         <v>99425629</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F56" s="22">
         <v>4192455</v>
       </c>
-      <c r="G53" s="22">
+      <c r="G56" s="22">
         <v>15716665</v>
       </c>
-      <c r="H53" s="22">
+      <c r="H56" s="22">
         <v>16267</v>
       </c>
-      <c r="I53" s="22">
-        <v>27010736129.159996</v>
-      </c>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="23">
+      <c r="I56" s="22">
+        <v>27010736128</v>
+      </c>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="23">
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="14">
+    <row r="57" spans="2:12" hidden="1">
+      <c r="B57" s="14">
         <v>2020</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C57" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D57" s="16">
         <v>119180902</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E57" s="17">
         <v>99203366</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F57" s="17">
         <v>4173252</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G57" s="17">
         <v>15788354</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H57" s="17">
         <v>15930</v>
       </c>
-      <c r="I54" s="17">
-        <v>25552913942.080002</v>
-      </c>
-      <c r="J54" s="17">
+      <c r="I57" s="17">
+        <v>25552913942</v>
+      </c>
+      <c r="J57" s="17">
         <v>2460366</v>
       </c>
-      <c r="K54" s="17"/>
-      <c r="L54" s="18">
+      <c r="K57" s="17"/>
+      <c r="L57" s="18">
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="19">
+    <row r="58" spans="2:12" hidden="1">
+      <c r="B58" s="19">
         <v>2020</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C58" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D58" s="21">
         <v>119483333</v>
       </c>
-      <c r="E55" s="22">
+      <c r="E58" s="22">
         <v>99438232</v>
       </c>
-      <c r="F55" s="22">
+      <c r="F58" s="22">
         <v>4181044</v>
       </c>
-      <c r="G55" s="22">
+      <c r="G58" s="22">
         <v>15848743</v>
       </c>
-      <c r="H55" s="22">
+      <c r="H58" s="22">
         <v>15314</v>
       </c>
-      <c r="I55" s="22">
-        <v>25528467114.880009</v>
-      </c>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="23">
+      <c r="I58" s="22">
+        <v>25528467114</v>
+      </c>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="23">
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="14">
+    <row r="59" spans="2:12" hidden="1">
+      <c r="B59" s="14">
         <v>2020</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C59" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D59" s="16">
         <v>120540220</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E59" s="17">
         <v>100379722</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F59" s="17">
         <v>4198247</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G59" s="17">
         <v>15947461</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H59" s="17">
         <v>14790</v>
       </c>
-      <c r="I56" s="17">
-        <v>25110333473.889996</v>
-      </c>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="18">
+      <c r="I59" s="17">
+        <v>25110333474</v>
+      </c>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="18">
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="19">
+    <row r="60" spans="2:12" hidden="1">
+      <c r="B60" s="19">
         <v>2020</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C60" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="21">
+      <c r="D60" s="21">
         <v>122141184</v>
       </c>
-      <c r="E57" s="22">
+      <c r="E60" s="22">
         <v>101859686</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F60" s="22">
         <v>4253421</v>
       </c>
-      <c r="G57" s="22">
+      <c r="G60" s="22">
         <v>16013354</v>
       </c>
-      <c r="H57" s="22">
+      <c r="H60" s="22">
         <v>14723</v>
       </c>
-      <c r="I57" s="22">
-        <v>27650633677.910007</v>
-      </c>
-      <c r="J57" s="22">
+      <c r="I60" s="22">
+        <v>27650633678</v>
+      </c>
+      <c r="J60" s="22">
         <v>2327980</v>
       </c>
-      <c r="K57" s="22"/>
-      <c r="L57" s="23">
+      <c r="K60" s="22"/>
+      <c r="L60" s="23">
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="14">
+    <row r="61" spans="2:12" hidden="1">
+      <c r="B61" s="14">
         <v>2020</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C61" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="16">
+      <c r="D61" s="16">
         <v>122247533</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E61" s="17">
         <v>101977547</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F61" s="17">
         <v>4259129</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G61" s="17">
         <v>15996405</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H61" s="17">
         <v>14452</v>
       </c>
-      <c r="I58" s="17">
-        <v>24462243471.039993</v>
-      </c>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="18">
+      <c r="I61" s="17">
+        <v>24462243471</v>
+      </c>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="18">
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="19">
+    <row r="62" spans="2:12" hidden="1">
+      <c r="B62" s="19">
         <v>2020</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C62" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="21">
+      <c r="D62" s="21">
         <v>122142155</v>
       </c>
-      <c r="E59" s="22">
+      <c r="E62" s="22">
         <v>101918338</v>
       </c>
-      <c r="F59" s="22">
+      <c r="F62" s="22">
         <v>4256818</v>
       </c>
-      <c r="G59" s="22">
+      <c r="G62" s="22">
         <v>15953660</v>
       </c>
-      <c r="H59" s="22">
+      <c r="H62" s="22">
         <v>13339</v>
       </c>
-      <c r="I59" s="22">
-        <v>25410369165.340004</v>
-      </c>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="23">
+      <c r="I62" s="22">
+        <v>25410369165</v>
+      </c>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="23">
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="40">
+    <row r="63" spans="2:12" hidden="1">
+      <c r="B63" s="40">
         <v>2019</v>
       </c>
-      <c r="C60" s="41" t="s">
+      <c r="C63" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="42">
+      <c r="D63" s="42">
         <v>122034815</v>
       </c>
-      <c r="E60" s="43">
+      <c r="E63" s="43">
         <v>101918338</v>
       </c>
-      <c r="F60" s="43">
+      <c r="F63" s="43">
         <v>4256818</v>
       </c>
-      <c r="G60" s="43">
+      <c r="G63" s="43">
         <v>15953660</v>
       </c>
-      <c r="H60" s="43">
+      <c r="H63" s="43">
         <v>13339</v>
       </c>
-      <c r="I60" s="43">
-        <v>25410369165.340004</v>
-      </c>
-      <c r="J60" s="43"/>
-      <c r="K60" s="43"/>
-      <c r="L60" s="44">
+      <c r="I63" s="43">
+        <v>26021275767</v>
+      </c>
+      <c r="J63" s="43"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="44">
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="45">
+    <row r="64" spans="2:12" hidden="1">
+      <c r="B64" s="45">
         <v>2019</v>
       </c>
-      <c r="C61" s="46" t="s">
+      <c r="C64" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="47">
+      <c r="D64" s="47">
         <v>121417930</v>
       </c>
-      <c r="E61" s="48">
+      <c r="E64" s="48">
         <v>101837846</v>
       </c>
-      <c r="F61" s="48">
+      <c r="F64" s="48">
         <v>4257986</v>
       </c>
-      <c r="G61" s="48">
+      <c r="G64" s="48">
         <v>15924590</v>
       </c>
-      <c r="H61" s="48">
+      <c r="H64" s="48">
         <v>12270</v>
       </c>
-      <c r="I61" s="48">
-        <v>26021275768.360004</v>
-      </c>
-      <c r="J61" s="48">
+      <c r="I64" s="48">
+        <v>25481656527</v>
+      </c>
+      <c r="J64" s="48">
         <v>2028044</v>
       </c>
-      <c r="K61" s="48">
+      <c r="K64" s="48">
         <v>1762900000</v>
       </c>
-      <c r="L61" s="49">
+      <c r="L64" s="49">
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="14">
+    <row r="65" spans="2:12" hidden="1">
+      <c r="B65" s="14">
         <v>2019</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C65" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D65" s="16">
         <v>121110040</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E65" s="17">
         <v>101277695</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F65" s="17">
         <v>4254583</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G65" s="17">
         <v>15871144</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H65" s="17">
         <v>11941</v>
       </c>
-      <c r="I62" s="17">
-        <v>25481656527.440002</v>
-      </c>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="18">
+      <c r="I65" s="17">
+        <v>26181122330</v>
+      </c>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="18">
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="19">
+    <row r="66" spans="2:12" hidden="1">
+      <c r="B66" s="19">
         <v>2019</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C66" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="21">
+      <c r="D66" s="21">
         <v>121348741</v>
       </c>
-      <c r="E63" s="22">
+      <c r="E66" s="22">
         <v>100981306</v>
       </c>
-      <c r="F63" s="22">
+      <c r="F66" s="22">
         <v>4221884</v>
       </c>
-      <c r="G63" s="22">
+      <c r="G66" s="22">
         <v>15892847</v>
       </c>
-      <c r="H63" s="22">
+      <c r="H66" s="22">
         <v>11658</v>
       </c>
-      <c r="I63" s="22">
-        <v>26181122329.829994</v>
-      </c>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="23">
+      <c r="I66" s="22">
+        <v>24875583340</v>
+      </c>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="23">
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="14">
+    <row r="67" spans="2:12" hidden="1">
+      <c r="B67" s="14">
         <v>2019</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C67" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D67" s="16">
         <v>120704330</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E67" s="17">
         <v>101240909</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F67" s="17">
         <v>4397216</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G67" s="17">
         <v>15695804</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H67" s="17">
         <v>14812</v>
       </c>
-      <c r="I64" s="17">
-        <v>24875583340.889999</v>
-      </c>
-      <c r="J64" s="17">
+      <c r="I67" s="17">
+        <v>25936468220</v>
+      </c>
+      <c r="J67" s="17">
         <v>1830773</v>
       </c>
-      <c r="K64" s="17"/>
-      <c r="L64" s="18">
+      <c r="K67" s="17"/>
+      <c r="L67" s="18">
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="19">
+    <row r="68" spans="2:12" hidden="1">
+      <c r="B68" s="19">
         <v>2019</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C68" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="21">
+      <c r="D68" s="21">
         <v>119578360</v>
       </c>
-      <c r="E65" s="22">
+      <c r="E68" s="22">
         <v>100656811</v>
       </c>
-      <c r="F65" s="22">
+      <c r="F68" s="22">
         <v>4294665</v>
       </c>
-      <c r="G65" s="22">
+      <c r="G68" s="22">
         <v>15737758</v>
       </c>
-      <c r="H65" s="22">
+      <c r="H68" s="22">
         <v>15096</v>
       </c>
-      <c r="I65" s="22">
-        <v>25936468219.289997</v>
-      </c>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="23">
+      <c r="I68" s="22">
+        <v>26139590008</v>
+      </c>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="23">
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="14">
+    <row r="69" spans="2:12" hidden="1">
+      <c r="B69" s="14">
         <v>2019</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C69" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="16">
+      <c r="D69" s="16">
         <v>118008300</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E69" s="17">
         <v>99570903</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F69" s="17">
         <v>4254496</v>
       </c>
-      <c r="G66" s="17">
+      <c r="G69" s="17">
         <v>15737637</v>
       </c>
-      <c r="H66" s="17">
+      <c r="H69" s="17">
         <v>15324</v>
       </c>
-      <c r="I66" s="17">
-        <v>26139590006.860001</v>
-      </c>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="18">
+      <c r="I69" s="17">
+        <v>26001099708</v>
+      </c>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="18">
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="19">
+    <row r="70" spans="2:12" hidden="1">
+      <c r="B70" s="19">
         <v>2019</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C70" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="21">
+      <c r="D70" s="21">
         <v>117170176</v>
       </c>
-      <c r="E67" s="22">
+      <c r="E70" s="22">
         <v>97991943</v>
       </c>
-      <c r="F67" s="22">
+      <c r="F70" s="22">
         <v>4214383</v>
       </c>
-      <c r="G67" s="22">
+      <c r="G70" s="22">
         <v>15785598</v>
       </c>
-      <c r="H67" s="22">
+      <c r="H70" s="22">
         <v>16376</v>
       </c>
-      <c r="I67" s="22">
-        <v>26001099707.859997</v>
-      </c>
-      <c r="J67" s="22">
+      <c r="I70" s="22">
+        <v>26710980129</v>
+      </c>
+      <c r="J70" s="22">
         <v>1642866</v>
       </c>
-      <c r="K67" s="22"/>
-      <c r="L67" s="23">
+      <c r="K70" s="22"/>
+      <c r="L70" s="23">
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="14">
+    <row r="71" spans="2:12" hidden="1">
+      <c r="B71" s="14">
         <v>2019</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C71" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D71" s="16">
         <v>117766469</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E71" s="17">
         <v>97183973</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F71" s="17">
         <v>4193405</v>
       </c>
-      <c r="G68" s="17">
+      <c r="G71" s="17">
         <v>15777126</v>
       </c>
-      <c r="H68" s="17">
+      <c r="H71" s="17">
         <v>15672</v>
       </c>
-      <c r="I68" s="17">
-        <v>26710980128.73</v>
-      </c>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="18">
+      <c r="I71" s="17">
+        <v>24685136142</v>
+      </c>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="18">
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="19">
+    <row r="72" spans="2:12" hidden="1">
+      <c r="B72" s="19">
         <v>2019</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C72" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="21">
+      <c r="D72" s="21">
         <v>118594369</v>
       </c>
-      <c r="E69" s="22">
+      <c r="E72" s="22">
         <v>97832965</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F72" s="22">
         <v>4084148</v>
       </c>
-      <c r="G69" s="22">
+      <c r="G72" s="22">
         <v>15833975</v>
       </c>
-      <c r="H69" s="22">
+      <c r="H72" s="22">
         <v>15381</v>
       </c>
-      <c r="I69" s="22">
-        <v>24685136142.459999</v>
-      </c>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="23">
+      <c r="I72" s="22">
+        <v>25704068984</v>
+      </c>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="23">
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="14">
+    <row r="73" spans="2:12" hidden="1">
+      <c r="B73" s="14">
         <v>2019</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C73" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D73" s="16">
         <v>118857535</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E73" s="17">
         <v>98625599</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F73" s="17">
         <v>4168093</v>
       </c>
-      <c r="G70" s="17">
+      <c r="G73" s="17">
         <v>15785556</v>
       </c>
-      <c r="H70" s="17">
+      <c r="H73" s="17">
         <v>15121</v>
       </c>
-      <c r="I70" s="17">
-        <v>25704068984.189999</v>
-      </c>
-      <c r="J70" s="17">
+      <c r="I73" s="17">
+        <v>23463937478</v>
+      </c>
+      <c r="J73" s="17">
         <v>1625954</v>
       </c>
-      <c r="K70" s="17"/>
-      <c r="L70" s="18">
+      <c r="K73" s="17"/>
+      <c r="L73" s="18">
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="19">
+    <row r="74" spans="2:12" hidden="1">
+      <c r="B74" s="19">
         <v>2019</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C74" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="21">
+      <c r="D74" s="21">
         <v>119533959</v>
       </c>
-      <c r="E71" s="22">
+      <c r="E74" s="22">
         <v>98907610</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F74" s="22">
         <v>4129861</v>
       </c>
-      <c r="G71" s="22">
+      <c r="G74" s="22">
         <v>15804976</v>
       </c>
-      <c r="H71" s="22">
+      <c r="H74" s="22">
         <v>15088</v>
       </c>
-      <c r="I71" s="22">
-        <v>23463937478.820004</v>
-      </c>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="23">
+      <c r="I74" s="22">
+        <v>25323210783</v>
+      </c>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="23">
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="14">
+    <row r="75" spans="2:12" hidden="1">
+      <c r="B75" s="14">
         <v>2018</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C75" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="16">
+      <c r="D75" s="16">
         <v>120165322</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E75" s="17">
         <v>99383095</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F75" s="17">
         <v>4114448</v>
       </c>
-      <c r="G72" s="17">
+      <c r="G75" s="17">
         <v>16021250</v>
       </c>
-      <c r="H72" s="17">
+      <c r="H75" s="17">
         <v>15166</v>
       </c>
-      <c r="I72" s="17">
-        <v>25323210783.099998</v>
-      </c>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="18">
+      <c r="I75" s="17">
+        <v>24550771606</v>
+      </c>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="18">
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="28">
+    <row r="76" spans="2:12" hidden="1">
+      <c r="B76" s="28">
         <v>2018</v>
       </c>
-      <c r="C73" s="29" t="s">
+      <c r="C76" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="34">
+      <c r="D76" s="34">
         <v>118943986</v>
       </c>
-      <c r="E73" s="32">
+      <c r="E76" s="32">
         <v>99383095</v>
       </c>
-      <c r="F73" s="32">
+      <c r="F76" s="32">
         <v>4114448</v>
       </c>
-      <c r="G73" s="32">
+      <c r="G76" s="32">
         <v>16021250</v>
       </c>
-      <c r="H73" s="32">
+      <c r="H76" s="32">
         <v>15166</v>
       </c>
-      <c r="I73" s="32">
-        <v>25323210783.099998</v>
-      </c>
-      <c r="J73" s="32"/>
-      <c r="K73" s="32"/>
-      <c r="L73" s="33">
+      <c r="I76" s="32">
+        <v>24312228490</v>
+      </c>
+      <c r="J76" s="32"/>
+      <c r="K76" s="32"/>
+      <c r="L76" s="33">
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="15">
+    <row r="77" spans="2:12" hidden="1">
+      <c r="B77" s="15">
         <v>2018</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C77" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D77" s="16">
         <v>117796129</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E77" s="17">
         <v>100076364</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F77" s="17">
         <v>4183064</v>
       </c>
-      <c r="G74" s="17">
+      <c r="G77" s="17">
         <v>15890774</v>
       </c>
-      <c r="H74" s="17">
+      <c r="H77" s="17">
         <v>15120</v>
       </c>
-      <c r="I74" s="17">
-        <v>24550771606</v>
-      </c>
-      <c r="J74" s="17">
+      <c r="I77" s="17">
+        <v>25623374283</v>
+      </c>
+      <c r="J77" s="17">
         <v>1762464</v>
       </c>
-      <c r="K74" s="17">
+      <c r="K77" s="17">
         <v>1450900000</v>
       </c>
-      <c r="L74" s="17">
+      <c r="L77" s="17">
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="20">
+    <row r="78" spans="2:12" hidden="1">
+      <c r="B78" s="20">
         <v>2018</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C78" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="21">
+      <c r="D78" s="21">
         <v>117359591</v>
       </c>
-      <c r="E75" s="22">
+      <c r="E78" s="22">
         <v>98969197</v>
       </c>
-      <c r="F75" s="22">
+      <c r="F78" s="22">
         <v>4114964</v>
       </c>
-      <c r="G75" s="22">
+      <c r="G78" s="22">
         <v>15844647</v>
       </c>
-      <c r="H75" s="22">
+      <c r="H78" s="22">
         <v>15178</v>
       </c>
-      <c r="I75" s="22">
-        <v>24312228490</v>
-      </c>
-      <c r="J75" s="22"/>
-      <c r="K75" s="22"/>
-      <c r="L75" s="22">
+      <c r="I78" s="22">
+        <v>24219698193</v>
+      </c>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="22">
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="15">
+    <row r="79" spans="2:12" hidden="1">
+      <c r="B79" s="15">
         <v>2018</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C79" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D79" s="16">
         <v>117696970</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E79" s="17">
         <v>97903998</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F79" s="17">
         <v>4089183</v>
       </c>
-      <c r="G76" s="17">
+      <c r="G79" s="17">
         <v>15787277</v>
       </c>
-      <c r="H76" s="17">
+      <c r="H79" s="17">
         <v>15671</v>
       </c>
-      <c r="I76" s="17">
-        <v>25623374283</v>
-      </c>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="17">
+      <c r="I79" s="17">
+        <v>25297337775</v>
+      </c>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17">
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="20">
+    <row r="80" spans="2:12" hidden="1">
+      <c r="B80" s="20">
         <v>2018</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C80" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="21">
+      <c r="D80" s="21">
         <v>117206582</v>
       </c>
-      <c r="E77" s="22">
+      <c r="E80" s="22">
         <v>97511773</v>
       </c>
-      <c r="F77" s="22">
+      <c r="F80" s="22">
         <v>4113922</v>
       </c>
-      <c r="G77" s="22">
+      <c r="G80" s="22">
         <v>15708183</v>
       </c>
-      <c r="H77" s="22">
+      <c r="H80" s="22">
         <v>25713</v>
       </c>
-      <c r="I77" s="22">
-        <v>24219698193</v>
-      </c>
-      <c r="J77" s="22">
+      <c r="I80" s="22">
+        <v>24585079838</v>
+      </c>
+      <c r="J80" s="22">
         <v>1610105</v>
       </c>
-      <c r="K77" s="22"/>
-      <c r="L77" s="22">
+      <c r="K80" s="22"/>
+      <c r="L80" s="22">
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="15">
+    <row r="81" spans="2:12" hidden="1">
+      <c r="B81" s="15">
         <v>2018</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C81" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="16">
+      <c r="D81" s="16">
         <v>116506207</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E81" s="17">
         <v>97922988</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F81" s="17">
         <v>4130993</v>
       </c>
-      <c r="G78" s="17">
+      <c r="G81" s="17">
         <v>15618650</v>
       </c>
-      <c r="H78" s="17">
+      <c r="H81" s="17">
         <v>24339</v>
       </c>
-      <c r="I78" s="17">
-        <v>25297337775</v>
-      </c>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="17">
+      <c r="I81" s="17">
+        <v>24867300426</v>
+      </c>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17">
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="20">
+    <row r="82" spans="2:12" hidden="1">
+      <c r="B82" s="20">
         <v>2018</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C82" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="21">
+      <c r="D82" s="21">
         <v>116257861</v>
       </c>
-      <c r="E79" s="22">
+      <c r="E82" s="22">
         <v>97437463</v>
       </c>
-      <c r="F79" s="22">
+      <c r="F82" s="22">
         <v>4175052</v>
       </c>
-      <c r="G79" s="22">
+      <c r="G82" s="22">
         <v>15570517</v>
       </c>
-      <c r="H79" s="22">
+      <c r="H82" s="22">
         <v>23550</v>
       </c>
-      <c r="I79" s="22">
-        <v>24585079838</v>
-      </c>
-      <c r="J79" s="22"/>
-      <c r="K79" s="22"/>
-      <c r="L79" s="22">
+      <c r="I82" s="22">
+        <v>25313482619</v>
+      </c>
+      <c r="J82" s="22"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="22">
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="15">
+    <row r="83" spans="2:12" hidden="1">
+      <c r="B83" s="15">
         <v>2018</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C83" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D80" s="16">
+      <c r="D83" s="16">
         <v>115575647</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E83" s="17">
         <v>96709635</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F83" s="17">
         <v>4348467</v>
       </c>
-      <c r="G80" s="17">
+      <c r="G83" s="17">
         <v>15430585</v>
       </c>
-      <c r="H80" s="17">
+      <c r="H83" s="17">
         <v>17520</v>
       </c>
-      <c r="I80" s="17">
-        <v>24867300426</v>
-      </c>
-      <c r="J80" s="17">
+      <c r="I83" s="17">
+        <v>24555428609</v>
+      </c>
+      <c r="J83" s="17">
         <v>1772571</v>
       </c>
-      <c r="K80" s="17"/>
-      <c r="L80" s="17">
+      <c r="K83" s="17"/>
+      <c r="L83" s="17">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="20">
+    <row r="84" spans="2:12" hidden="1">
+      <c r="B84" s="20">
         <v>2018</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C84" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="21">
+      <c r="D84" s="21">
         <v>115133274</v>
       </c>
-      <c r="E81" s="22">
+      <c r="E84" s="22">
         <v>96331155</v>
       </c>
-      <c r="F81" s="22">
+      <c r="F84" s="22">
         <v>4569305</v>
       </c>
-      <c r="G81" s="22">
+      <c r="G84" s="22">
         <v>15338682</v>
       </c>
-      <c r="H81" s="22">
+      <c r="H84" s="22">
         <v>18719</v>
       </c>
-      <c r="I81" s="22">
-        <v>25313482619</v>
-      </c>
-      <c r="J81" s="22"/>
-      <c r="K81" s="22"/>
-      <c r="L81" s="22">
+      <c r="I84" s="22">
+        <v>24820985514</v>
+      </c>
+      <c r="J84" s="22"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="22">
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="15">
+    <row r="85" spans="2:12" hidden="1">
+      <c r="B85" s="15">
         <v>2018</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C85" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="16">
+      <c r="D85" s="16">
         <v>114858875</v>
       </c>
-      <c r="E82" s="17">
+      <c r="E85" s="17">
         <v>95919913</v>
       </c>
-      <c r="F82" s="17">
+      <c r="F85" s="17">
         <v>4413873</v>
       </c>
-      <c r="G82" s="17">
+      <c r="G85" s="17">
         <v>15224655</v>
       </c>
-      <c r="H82" s="17">
+      <c r="H85" s="17">
         <v>17206</v>
       </c>
-      <c r="I82" s="17">
-        <v>24555428609</v>
-      </c>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17">
+      <c r="I85" s="17">
+        <v>22796888526</v>
+      </c>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="17">
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="20">
+    <row r="86" spans="2:12" hidden="1">
+      <c r="B86" s="20">
         <v>2018</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C86" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="21">
+      <c r="D86" s="21">
         <v>114656791</v>
       </c>
-      <c r="E83" s="22">
+      <c r="E86" s="22">
         <v>95550252</v>
       </c>
-      <c r="F83" s="22">
+      <c r="F86" s="22">
         <v>4314582</v>
       </c>
-      <c r="G83" s="22">
+      <c r="G86" s="22">
         <v>15245899</v>
       </c>
-      <c r="H83" s="22">
+      <c r="H86" s="22">
         <v>22541</v>
       </c>
-      <c r="I83" s="22">
-        <v>24820985514</v>
-      </c>
-      <c r="J83" s="22">
+      <c r="I86" s="22">
+        <v>23849716771</v>
+      </c>
+      <c r="J86" s="22">
         <v>1657520</v>
       </c>
-      <c r="K83" s="22"/>
-      <c r="L83" s="22">
+      <c r="K86" s="22"/>
+      <c r="L86" s="22">
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B84" s="3" t="s">
+    <row r="87" spans="2:12">
+      <c r="B87" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B85" s="3" t="s">
+    <row r="88" spans="2:12">
+      <c r="B88" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B86" s="3" t="s">
+    <row r="89" spans="2:12">
+      <c r="B89" s="3" t="s">
         <v>1</v>
       </c>
     </row>
